--- a/outcome/appendix/forecast/Rubella.xlsx
+++ b/outcome/appendix/forecast/Rubella.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1757.61937490894</v>
+        <v>1374.91900531823</v>
       </c>
       <c r="C2" t="n">
-        <v>-1956.01397327078</v>
+        <v>965.029985232492</v>
       </c>
       <c r="D2" t="n">
-        <v>-3660.86386173361</v>
+        <v>807.74331353188</v>
       </c>
       <c r="E2" t="n">
-        <v>5265.00429406739</v>
+        <v>2011.22672533693</v>
       </c>
       <c r="F2" t="n">
-        <v>7654.43008433268</v>
+        <v>2489.71414450686</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>558.619374908937</v>
+        <v>175.919005318232</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1529.62293079616</v>
+        <v>1240.8519825714</v>
       </c>
       <c r="C3" t="n">
-        <v>-3724.59423014672</v>
+        <v>832.868854156225</v>
       </c>
       <c r="D3" t="n">
-        <v>-6167.61683727016</v>
+        <v>682.512708652025</v>
       </c>
       <c r="E3" t="n">
-        <v>7119.36601505452</v>
+        <v>1912.15576626722</v>
       </c>
       <c r="F3" t="n">
-        <v>10561.5826571234</v>
+        <v>2442.14351617259</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>1223.62293079616</v>
+        <v>934.851982571398</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4219.87380163049</v>
+        <v>4839.01115807679</v>
       </c>
       <c r="C4" t="n">
-        <v>-2347.16428280571</v>
+        <v>2721.75453225216</v>
       </c>
       <c r="D4" t="n">
-        <v>-5245.91074670646</v>
+        <v>2056.51603994874</v>
       </c>
       <c r="E4" t="n">
-        <v>10630.5605809725</v>
+        <v>9255.90991863102</v>
       </c>
       <c r="F4" t="n">
-        <v>17307.3318913198</v>
+        <v>13532.5249842636</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4022.87380163049</v>
+        <v>4642.01115807679</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8242.31523657495</v>
+        <v>11017.567668366</v>
       </c>
       <c r="C5" t="n">
-        <v>608.042454069269</v>
+        <v>5276.81875513249</v>
       </c>
       <c r="D5" t="n">
-        <v>-2547.5358764376</v>
+        <v>3716.18736505042</v>
       </c>
       <c r="E5" t="n">
-        <v>16570.2154270629</v>
+        <v>26045.7273785684</v>
       </c>
       <c r="F5" t="n">
-        <v>21925.9315936659</v>
+        <v>43888.1346307824</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>8126.31523657495</v>
+        <v>10901.567668366</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9995.09895902226</v>
+        <v>15062.1352682869</v>
       </c>
       <c r="C6" t="n">
-        <v>1484.43285417273</v>
+        <v>6461.56633606222</v>
       </c>
       <c r="D6" t="n">
-        <v>-2681.62190291502</v>
+        <v>4344.13173978487</v>
       </c>
       <c r="E6" t="n">
-        <v>18986.6517049588</v>
+        <v>41555.5461964208</v>
       </c>
       <c r="F6" t="n">
-        <v>24622.3809994177</v>
+        <v>78164.1734353441</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>9905.09895902226</v>
+        <v>14972.1352682869</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6729.48971340593</v>
+        <v>8724.01525434972</v>
       </c>
       <c r="C7" t="n">
-        <v>-2673.46576605379</v>
+        <v>3820.41526997848</v>
       </c>
       <c r="D7" t="n">
-        <v>-6369.56280650906</v>
+        <v>2590.58594484808</v>
       </c>
       <c r="E7" t="n">
-        <v>16576.1173741416</v>
+        <v>23369.5105608721</v>
       </c>
       <c r="F7" t="n">
-        <v>21346.0532703653</v>
+        <v>43024.5180076193</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>6615.48971340593</v>
+        <v>8610.01525434972</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>3337.65994926264</v>
+        <v>3673.59877436925</v>
       </c>
       <c r="C8" t="n">
-        <v>-6555.93611642581</v>
+        <v>1726.1522124805</v>
       </c>
       <c r="D8" t="n">
-        <v>-12132.1758050336</v>
+        <v>1205.76415961889</v>
       </c>
       <c r="E8" t="n">
-        <v>13610.1180479046</v>
+        <v>8915.29180029911</v>
       </c>
       <c r="F8" t="n">
-        <v>19466.1685097138</v>
+        <v>15299.7737036174</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>3241.65994926264</v>
+        <v>3577.59877436925</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1931.13760272824</v>
+        <v>1578.93502015431</v>
       </c>
       <c r="C9" t="n">
-        <v>-8915.39262614619</v>
+        <v>792.503767142619</v>
       </c>
       <c r="D9" t="n">
-        <v>-14811.2525918586</v>
+        <v>569.49928461467</v>
       </c>
       <c r="E9" t="n">
-        <v>11739.731109144</v>
+        <v>3503.47900864373</v>
       </c>
       <c r="F9" t="n">
-        <v>19015.3289141651</v>
+        <v>5652.21780038507</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>96</v>
       </c>
       <c r="I9" t="n">
-        <v>1835.13760272824</v>
+        <v>1482.93502015431</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2028.47613671939</v>
+        <v>1260.71847723756</v>
       </c>
       <c r="C10" t="n">
-        <v>-10019.8459384874</v>
+        <v>625.244669225489</v>
       </c>
       <c r="D10" t="n">
-        <v>-15702.0182821411</v>
+        <v>446.980569287069</v>
       </c>
       <c r="E10" t="n">
-        <v>12876.8820939737</v>
+        <v>2842.72502712157</v>
       </c>
       <c r="F10" t="n">
-        <v>18776.1083046006</v>
+        <v>4636.71250631928</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>1926.47613671939</v>
+        <v>1158.71847723756</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2094.54983451569</v>
+        <v>1390.50022131881</v>
       </c>
       <c r="C11" t="n">
-        <v>-10527.5612482826</v>
+        <v>654.24664058466</v>
       </c>
       <c r="D11" t="n">
-        <v>-15225.1490316497</v>
+        <v>457.270334672973</v>
       </c>
       <c r="E11" t="n">
-        <v>13624.2099426293</v>
+        <v>3368.30296761349</v>
       </c>
       <c r="F11" t="n">
-        <v>20062.8278096667</v>
+        <v>5772.95612396114</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>1937.54983451569</v>
+        <v>1233.50022131881</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2267.84324239667</v>
+        <v>1784.16961650408</v>
       </c>
       <c r="C12" t="n">
-        <v>-10958.9567001162</v>
+        <v>777.935476389915</v>
       </c>
       <c r="D12" t="n">
-        <v>-18692.7601317612</v>
+        <v>526.55524352183</v>
       </c>
       <c r="E12" t="n">
-        <v>14411.8580285193</v>
+        <v>4809.07250923134</v>
       </c>
       <c r="F12" t="n">
-        <v>20575.2845633994</v>
+        <v>8893.59004974966</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>1991.84324239667</v>
+        <v>1508.16961650408</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1958.38434351101</v>
+        <v>3003.86902053557</v>
       </c>
       <c r="C13" t="n">
-        <v>-11381.4074830172</v>
+        <v>1154.6648830106</v>
       </c>
       <c r="D13" t="n">
-        <v>-18818.0498509315</v>
+        <v>742.216329053881</v>
       </c>
       <c r="E13" t="n">
-        <v>14477.3535248476</v>
+        <v>9747.58867720652</v>
       </c>
       <c r="F13" t="n">
-        <v>19829.513005815</v>
+        <v>20711.8649493645</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1854.38434351101</v>
+        <v>2899.86902053557</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1567.63359674508</v>
+        <v>2606.97850738586</v>
       </c>
       <c r="C14" t="n">
-        <v>-11671.1760219579</v>
+        <v>983.078804314847</v>
       </c>
       <c r="D14" t="n">
-        <v>-19539.570952707</v>
+        <v>627.07553112597</v>
       </c>
       <c r="E14" t="n">
-        <v>14382.2497099652</v>
+        <v>8710.644123569</v>
       </c>
       <c r="F14" t="n">
-        <v>20836.1288261903</v>
+        <v>18933.4306445848</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1440.63359674508</v>
+        <v>2479.97850738586</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1685.79398595889</v>
+        <v>2321.15668498155</v>
       </c>
       <c r="C15" t="n">
-        <v>-12553.7768975562</v>
+        <v>856.285442870883</v>
       </c>
       <c r="D15" t="n">
-        <v>-21138.4353842875</v>
+        <v>541.429046698893</v>
       </c>
       <c r="E15" t="n">
-        <v>15917.0482551189</v>
+        <v>8022.55421856795</v>
       </c>
       <c r="F15" t="n">
-        <v>21370.0564913179</v>
+        <v>17907.1538053664</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1639.79398595889</v>
+        <v>2275.15668498155</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4472.72097718721</v>
+        <v>11138.8712007665</v>
       </c>
       <c r="C16" t="n">
-        <v>-10178.0154015954</v>
+        <v>2842.03545988298</v>
       </c>
       <c r="D16" t="n">
-        <v>-20163.482919269</v>
+        <v>1562.71774534912</v>
       </c>
       <c r="E16" t="n">
-        <v>17996.6201987715</v>
+        <v>72257.6440350461</v>
       </c>
       <c r="F16" t="n">
-        <v>23195.8866545003</v>
+        <v>281932.058308779</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>4390.72097718721</v>
+        <v>11056.8712007665</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8009.40459671138</v>
+        <v>29782.6807357234</v>
       </c>
       <c r="C17" t="n">
-        <v>-5655.63869106659</v>
+        <v>5578.04311134334</v>
       </c>
       <c r="D17" t="n">
-        <v>-18708.6487172951</v>
+        <v>2755.88126428723</v>
       </c>
       <c r="E17" t="n">
-        <v>22016.5390821603</v>
+        <v>365897.325719392</v>
       </c>
       <c r="F17" t="n">
-        <v>27710.4240246013</v>
+        <v>2953764.37934847</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>7902.40459671138</v>
+        <v>29675.6807357234</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9792.57152143819</v>
+        <v>43657.1133817582</v>
       </c>
       <c r="C18" t="n">
-        <v>-4194.26100308667</v>
+        <v>6874.21192468393</v>
       </c>
       <c r="D18" t="n">
-        <v>-16066.0267465128</v>
+        <v>3210.12371156627</v>
       </c>
       <c r="E18" t="n">
-        <v>24289.0517686144</v>
+        <v>813619.745057329</v>
       </c>
       <c r="F18" t="n">
-        <v>30309.9846339091</v>
+        <v>11953499.7352884</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>9605.57152143819</v>
+        <v>43470.1133817582</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6201.76992256462</v>
+        <v>22459.960441881</v>
       </c>
       <c r="C19" t="n">
-        <v>-9162.70831306062</v>
+        <v>4048.27036724792</v>
       </c>
       <c r="D19" t="n">
-        <v>-18774.2891426623</v>
+        <v>1974.88191775768</v>
       </c>
       <c r="E19" t="n">
-        <v>21389.8636761308</v>
+        <v>301331.740713009</v>
       </c>
       <c r="F19" t="n">
-        <v>25895.5820197206</v>
+        <v>2734249.4625756</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>6086.76992256462</v>
+        <v>22344.960441881</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2795.59731539901</v>
+        <v>8065.41525115222</v>
       </c>
       <c r="C20" t="n">
-        <v>-12422.7969940432</v>
+        <v>1815.1665379492</v>
       </c>
       <c r="D20" t="n">
-        <v>-24018.1707433682</v>
+        <v>954.656716354132</v>
       </c>
       <c r="E20" t="n">
-        <v>18097.6485354635</v>
+        <v>66850.8549266103</v>
       </c>
       <c r="F20" t="n">
-        <v>26199.1281104166</v>
+        <v>337084.474964563</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2693.59731539901</v>
+        <v>7963.41525115222</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1824.33500475651</v>
+        <v>3050.44519306227</v>
       </c>
       <c r="C21" t="n">
-        <v>-13787.7022227533</v>
+        <v>827.369258395209</v>
       </c>
       <c r="D21" t="n">
-        <v>-25398.7551590533</v>
+        <v>465.15526011988</v>
       </c>
       <c r="E21" t="n">
-        <v>17412.2954338436</v>
+        <v>17670.3896335834</v>
       </c>
       <c r="F21" t="n">
-        <v>25570.9441003403</v>
+        <v>61743.4232000497</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1756.33500475651</v>
+        <v>2982.44519306227</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1443.61123088489</v>
+        <v>2363.21677357991</v>
       </c>
       <c r="C22" t="n">
-        <v>-14050.1784020168</v>
+        <v>651.055555822105</v>
       </c>
       <c r="D22" t="n">
-        <v>-26383.1008356838</v>
+        <v>368.133385294805</v>
       </c>
       <c r="E22" t="n">
-        <v>17825.9589065177</v>
+        <v>13307.5999899152</v>
       </c>
       <c r="F22" t="n">
-        <v>26065.7696384104</v>
+        <v>45267.9197322366</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>1353.61123088489</v>
+        <v>2273.21677357991</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1479.166170388</v>
+        <v>2640.49260156524</v>
       </c>
       <c r="C23" t="n">
-        <v>-13771.069977903</v>
+        <v>680.75106471307</v>
       </c>
       <c r="D23" t="n">
-        <v>-26419.9322968412</v>
+        <v>375.724122645056</v>
       </c>
       <c r="E23" t="n">
-        <v>17622.6131059839</v>
+        <v>16797.6201941236</v>
       </c>
       <c r="F23" t="n">
-        <v>27566.6292559424</v>
+        <v>64282.4580074101</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>1378.166170388</v>
+        <v>2539.49260156524</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1665.82575224694</v>
+        <v>3506.1862016806</v>
       </c>
       <c r="C24" t="n">
-        <v>-14991.2332093165</v>
+        <v>809.328562580547</v>
       </c>
       <c r="D24" t="n">
-        <v>-27923.9909034002</v>
+        <v>429.441230187099</v>
       </c>
       <c r="E24" t="n">
-        <v>19098.8675232682</v>
+        <v>27618.6443560077</v>
       </c>
       <c r="F24" t="n">
-        <v>27397.2058543231</v>
+        <v>131760.078341319</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>1546.82575224694</v>
+        <v>3387.1862016806</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2143.36645179415</v>
+        <v>6382.66551392178</v>
       </c>
       <c r="C25" t="n">
-        <v>-16645.4044079031</v>
+        <v>1202.70095703226</v>
       </c>
       <c r="D25" t="n">
-        <v>-26495.5364449249</v>
+        <v>595.406138486467</v>
       </c>
       <c r="E25" t="n">
-        <v>19921.7148976468</v>
+        <v>77344.3601405548</v>
       </c>
       <c r="F25" t="n">
-        <v>30702.962137536</v>
+        <v>613339.431430439</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>1985.36645179415</v>
+        <v>6224.66551392178</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1982.00909490836</v>
+        <v>5417.92915016526</v>
       </c>
       <c r="C26" t="n">
-        <v>-16957.2379124824</v>
+        <v>1020.4231096747</v>
       </c>
       <c r="D26" t="n">
-        <v>-28296.8506031862</v>
+        <v>505.087383553094</v>
       </c>
       <c r="E26" t="n">
-        <v>20468.0574852663</v>
+        <v>65725.0826726849</v>
       </c>
       <c r="F26" t="n">
-        <v>29430.15315578</v>
+        <v>521930.974909916</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>1912.00909490836</v>
+        <v>5347.92915016526</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1491.23788449488</v>
+        <v>4739.57317125171</v>
       </c>
       <c r="C27" t="n">
-        <v>-18713.4683474171</v>
+        <v>885.817464714885</v>
       </c>
       <c r="D27" t="n">
-        <v>-27688.9581067476</v>
+        <v>437.340385334054</v>
       </c>
       <c r="E27" t="n">
-        <v>21332.5973732481</v>
+        <v>58506.8150823562</v>
       </c>
       <c r="F27" t="n">
-        <v>29764.0737024933</v>
+        <v>475250.224823348</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>1436.23788449488</v>
+        <v>4684.57317125171</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4256.79039903716</v>
+        <v>30181.5937498205</v>
       </c>
       <c r="C28" t="n">
-        <v>-16502.0886709123</v>
+        <v>2957.01768150619</v>
       </c>
       <c r="D28" t="n">
-        <v>-26927.2111575528</v>
+        <v>1198.15088166416</v>
       </c>
       <c r="E28" t="n">
-        <v>24368.8434530281</v>
+        <v>2407348.23377873</v>
       </c>
       <c r="F28" t="n">
-        <v>33183.4756291259</v>
+        <v>1545790775.17563</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>4158.79039903716</v>
+        <v>30083.5937498205</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,20 +1288,18 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8359.91198406962</v>
+        <v>102494.820434976</v>
       </c>
       <c r="C29" t="n">
-        <v>-13239.1632250918</v>
+        <v>5813.39128430419</v>
       </c>
       <c r="D29" t="n">
-        <v>-23039.3639987299</v>
+        <v>2039.81574902204</v>
       </c>
       <c r="E29" t="n">
-        <v>29566.2102288643</v>
-      </c>
-      <c r="F29" t="n">
-        <v>35655.3774756301</v>
-      </c>
+        <v>131148010.052603</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>8262.91198406962</v>
+        <v>102397.820434976</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,20 +1318,18 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>10082.2786555685</v>
+        <v>167682.92364521</v>
       </c>
       <c r="C30" t="n">
-        <v>-11883.15336953</v>
+        <v>7145.68078051792</v>
       </c>
       <c r="D30" t="n">
-        <v>-20708.642998162</v>
+        <v>2342.60438317054</v>
       </c>
       <c r="E30" t="n">
-        <v>31601.6351311627</v>
-      </c>
-      <c r="F30" t="n">
-        <v>40110.4581820683</v>
-      </c>
+        <v>3158356746.6908</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1337,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>9927.27865556846</v>
+        <v>167527.92364521</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,20 +1348,18 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6630.22878026237</v>
+        <v>71740.1340771558</v>
       </c>
       <c r="C31" t="n">
-        <v>-14998.3761769749</v>
+        <v>4175.10403189859</v>
       </c>
       <c r="D31" t="n">
-        <v>-24611.6329969319</v>
+        <v>1474.30238191933</v>
       </c>
       <c r="E31" t="n">
-        <v>27593.9880026595</v>
-      </c>
-      <c r="F31" t="n">
-        <v>36169.1773901505</v>
-      </c>
+        <v>76723241.8874401</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1367,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>6463.22878026237</v>
+        <v>71573.1340771558</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1378,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2849.71410737138</v>
+        <v>20438.686361785</v>
       </c>
       <c r="C32" t="n">
-        <v>-18586.2311091702</v>
+        <v>1856.98610910658</v>
       </c>
       <c r="D32" t="n">
-        <v>-27920.7993938279</v>
+        <v>736.767435215731</v>
       </c>
       <c r="E32" t="n">
-        <v>25189.2192612806</v>
+        <v>2178950.26331102</v>
       </c>
       <c r="F32" t="n">
-        <v>34391.6771280715</v>
+        <v>6435221361.20889</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1399,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>2743.71410737138</v>
+        <v>20332.686361785</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1410,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1489.96117157615</v>
+        <v>6497.52733725281</v>
       </c>
       <c r="C33" t="n">
-        <v>-19929.6210333876</v>
+        <v>841.028224052747</v>
       </c>
       <c r="D33" t="n">
-        <v>-31034.6706166385</v>
+        <v>369.611448617361</v>
       </c>
       <c r="E33" t="n">
-        <v>23601.5621975835</v>
+        <v>206868.786231459</v>
       </c>
       <c r="F33" t="n">
-        <v>31865.5694741447</v>
+        <v>8143306.63369224</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1431,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>1361.96117157615</v>
+        <v>6369.52733725281</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1442,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1364.60586761404</v>
+        <v>4838.4917586446</v>
       </c>
       <c r="C34" t="n">
-        <v>-19854.2601876073</v>
+        <v>659.276463870522</v>
       </c>
       <c r="D34" t="n">
-        <v>-31120.3881551667</v>
+        <v>294.294151045584</v>
       </c>
       <c r="E34" t="n">
-        <v>24618.4736644324</v>
+        <v>132876.034272065</v>
       </c>
       <c r="F34" t="n">
-        <v>33578.9505818269</v>
+        <v>3865455.11476698</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1463,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>1266.60586761404</v>
+        <v>4740.4917586446</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1474,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1155.83641813232</v>
+        <v>5498.39383675145</v>
       </c>
       <c r="C35" t="n">
-        <v>-22430.4557096674</v>
+        <v>687.247362184814</v>
       </c>
       <c r="D35" t="n">
-        <v>-32492.7784889041</v>
+        <v>298.869172383151</v>
       </c>
       <c r="E35" t="n">
-        <v>23039.1946415779</v>
+        <v>194262.330983126</v>
       </c>
       <c r="F35" t="n">
-        <v>35818.8669467892</v>
+        <v>9623887.7772129</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1495,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>1037.83641813232</v>
+        <v>5380.39383675145</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1506,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1386.9119471184</v>
+        <v>7638.67117321644</v>
       </c>
       <c r="C36" t="n">
-        <v>-21998.8519057628</v>
+        <v>814.609556739994</v>
       </c>
       <c r="D36" t="n">
-        <v>-32587.0886790951</v>
+        <v>338.130856146562</v>
       </c>
       <c r="E36" t="n">
-        <v>25457.6284292469</v>
+        <v>450038.419217817</v>
       </c>
       <c r="F36" t="n">
-        <v>35708.2237692135</v>
+        <v>90761981.330304</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1527,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>1266.9119471184</v>
+        <v>7518.67117321644</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1538,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1728.48161680858</v>
+        <v>15455.8433020857</v>
       </c>
       <c r="C37" t="n">
-        <v>-21122.1949621527</v>
+        <v>1206.78831231977</v>
       </c>
       <c r="D37" t="n">
-        <v>-33674.4061892912</v>
+        <v>459.523405685014</v>
       </c>
       <c r="E37" t="n">
-        <v>24330.8651563676</v>
+        <v>3166846.53736196</v>
       </c>
       <c r="F37" t="n">
-        <v>37898.0151786568</v>
+        <v>215108054428567</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1559,7 @@
         <v>72</v>
       </c>
       <c r="I37" t="n">
-        <v>1656.48161680858</v>
+        <v>15383.8433020857</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1570,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1570.32382279068</v>
+        <v>12727.0988468208</v>
       </c>
       <c r="C38" t="n">
-        <v>-22759.5541708817</v>
+        <v>1020.1453201762</v>
       </c>
       <c r="D38" t="n">
-        <v>-35012.9722308675</v>
+        <v>391.183046394075</v>
       </c>
       <c r="E38" t="n">
-        <v>24542.9351138187</v>
+        <v>2311234.62844473</v>
       </c>
       <c r="F38" t="n">
-        <v>39201.330436166</v>
+        <v>2833832547125.85</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1591,7 @@
         <v>40</v>
       </c>
       <c r="I38" t="n">
-        <v>1530.32382279068</v>
+        <v>12687.0988468208</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1602,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1519.73032592178</v>
+        <v>10870.0008285638</v>
       </c>
       <c r="C39" t="n">
-        <v>-22939.1968311424</v>
+        <v>882.495540238372</v>
       </c>
       <c r="D39" t="n">
-        <v>-35220.8636204424</v>
+        <v>339.562108758294</v>
       </c>
       <c r="E39" t="n">
-        <v>23877.0032626755</v>
+        <v>1863572.95543778</v>
       </c>
       <c r="F39" t="n">
-        <v>40146.6325615749</v>
+        <v>715789412799.238</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1623,7 @@
         <v>67</v>
       </c>
       <c r="I39" t="n">
-        <v>1452.73032592178</v>
+        <v>10803.0008285638</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,20 +1634,16 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4227.33028377312</v>
+        <v>104247.083126678</v>
       </c>
       <c r="C40" t="n">
-        <v>-19948.2072514646</v>
+        <v>2929.9127570011</v>
       </c>
       <c r="D40" t="n">
-        <v>-33057.0871141366</v>
-      </c>
-      <c r="E40" t="n">
-        <v>27810.1508847688</v>
-      </c>
-      <c r="F40" t="n">
-        <v>42402.0277803995</v>
-      </c>
+        <v>877.044446996752</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1651,7 @@
         <v>90</v>
       </c>
       <c r="I40" t="n">
-        <v>4137.33028377312</v>
+        <v>104157.083126678</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,20 +1662,16 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>8328.32669021565</v>
+        <v>524954.156815373</v>
       </c>
       <c r="C41" t="n">
-        <v>-18278.727039285</v>
+        <v>5723.29744286455</v>
       </c>
       <c r="D41" t="n">
-        <v>-29502.5102399451</v>
-      </c>
-      <c r="E41" t="n">
-        <v>32724.2267328184</v>
-      </c>
-      <c r="F41" t="n">
-        <v>46632.5943689702</v>
-      </c>
+        <v>1435.93553203429</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1679,7 @@
         <v>75</v>
       </c>
       <c r="I41" t="n">
-        <v>8253.32669021565</v>
+        <v>524879.156815373</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,20 +1690,16 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>10161.7305744747</v>
+        <v>1047347.87819239</v>
       </c>
       <c r="C42" t="n">
-        <v>-16581.3238270707</v>
+        <v>6992.96184287536</v>
       </c>
       <c r="D42" t="n">
-        <v>-29082.1106893102</v>
-      </c>
-      <c r="E42" t="n">
-        <v>35275.7309556549</v>
-      </c>
-      <c r="F42" t="n">
-        <v>50404.8794612654</v>
-      </c>
+        <v>1623.80888169367</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1707,7 @@
         <v>73</v>
       </c>
       <c r="I42" t="n">
-        <v>10088.7305744747</v>
+        <v>1047274.87819239</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,20 +1718,16 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6957.28735656759</v>
+        <v>323233.854080121</v>
       </c>
       <c r="C43" t="n">
-        <v>-20681.6627951664</v>
+        <v>4074.95870447166</v>
       </c>
       <c r="D43" t="n">
-        <v>-33898.6659660979</v>
-      </c>
-      <c r="E43" t="n">
-        <v>33730.836281906</v>
-      </c>
-      <c r="F43" t="n">
-        <v>47955.1991255885</v>
-      </c>
+        <v>1047.87821018769</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1735,7 @@
         <v>110</v>
       </c>
       <c r="I43" t="n">
-        <v>6847.28735656759</v>
+        <v>323123.854080121</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,20 +1746,16 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>3321.12785586034</v>
+        <v>63749.3889651034</v>
       </c>
       <c r="C44" t="n">
-        <v>-24917.9125747404</v>
+        <v>1811.39246766309</v>
       </c>
       <c r="D44" t="n">
-        <v>-37964.4406369985</v>
-      </c>
-      <c r="E44" t="n">
-        <v>29568.2855066985</v>
-      </c>
-      <c r="F44" t="n">
-        <v>46201.5300004237</v>
-      </c>
+        <v>543.459296698263</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1763,7 @@
         <v>99</v>
       </c>
       <c r="I44" t="n">
-        <v>3222.12785586034</v>
+        <v>63650.3889651034</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,20 +1774,18 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2248.93144276152</v>
+        <v>15787.2094014831</v>
       </c>
       <c r="C45" t="n">
-        <v>-24506.1416697114</v>
+        <v>820.390098150045</v>
       </c>
       <c r="D45" t="n">
-        <v>-39754.0302786146</v>
+        <v>281.793566616254</v>
       </c>
       <c r="E45" t="n">
-        <v>28173.6512463539</v>
-      </c>
-      <c r="F45" t="n">
-        <v>46151.7593729591</v>
-      </c>
+        <v>39467452.4928857</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1793,7 @@
         <v>103</v>
       </c>
       <c r="I45" t="n">
-        <v>2145.93144276152</v>
+        <v>15684.2094014831</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,20 +1804,18 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2243.69507118937</v>
+        <v>11137.4637365497</v>
       </c>
       <c r="C46" t="n">
-        <v>-26783.0523684826</v>
+        <v>641.662796251346</v>
       </c>
       <c r="D46" t="n">
-        <v>-42415.55867847</v>
+        <v>226.017587108737</v>
       </c>
       <c r="E46" t="n">
-        <v>30427.5340633144</v>
-      </c>
-      <c r="F46" t="n">
-        <v>46456.5212391042</v>
-      </c>
+        <v>12768359.8437974</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1823,7 @@
         <v>72</v>
       </c>
       <c r="I46" t="n">
-        <v>2171.69507118937</v>
+        <v>11065.4637365497</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,20 +1834,18 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>2229.45573443968</v>
+        <v>12950.8580838338</v>
       </c>
       <c r="C47" t="n">
-        <v>-26577.1473171603</v>
+        <v>666.457233789773</v>
       </c>
       <c r="D47" t="n">
-        <v>-40891.9317364228</v>
+        <v>228.382563881573</v>
       </c>
       <c r="E47" t="n">
-        <v>31189.4684277846</v>
-      </c>
-      <c r="F47" t="n">
-        <v>44210.7382579097</v>
-      </c>
+        <v>35117216.1933797</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1853,7 @@
         <v>110</v>
       </c>
       <c r="I47" t="n">
-        <v>2119.45573443968</v>
+        <v>12840.8580838338</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,20 +1864,18 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2616.36244440749</v>
+        <v>19149.7188895593</v>
       </c>
       <c r="C48" t="n">
-        <v>-25148.2547563322</v>
+        <v>786.365546465311</v>
       </c>
       <c r="D48" t="n">
-        <v>-42378.7530377087</v>
+        <v>255.62472133386</v>
       </c>
       <c r="E48" t="n">
-        <v>31088.1637673852</v>
-      </c>
-      <c r="F48" t="n">
-        <v>44976.2455185447</v>
-      </c>
+        <v>592727819.714291</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1883,7 @@
         <v>89</v>
       </c>
       <c r="I48" t="n">
-        <v>2527.36244440749</v>
+        <v>19060.7188895593</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,20 +1894,16 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3116.86465169973</v>
+        <v>45067.5265442694</v>
       </c>
       <c r="C49" t="n">
-        <v>-26523.0977880407</v>
+        <v>1157.2580865043</v>
       </c>
       <c r="D49" t="n">
-        <v>-42843.0132459207</v>
-      </c>
-      <c r="E49" t="n">
-        <v>31288.0914701693</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48212.2230584157</v>
-      </c>
+        <v>340.041350011937</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="I49" t="n">
-        <v>3042.86465169973</v>
+        <v>44993.5265442694</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Rubella.xlsx
+++ b/outcome/appendix/forecast/Rubella.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rubella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -421,415 +424,319 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>1374.91900531823</v>
+        <v>464.489713763927</v>
       </c>
       <c r="C2" t="n">
-        <v>965.029985232492</v>
+        <v>354.597218026174</v>
       </c>
       <c r="D2" t="n">
-        <v>807.74331353188</v>
+        <v>309.069822199523</v>
       </c>
       <c r="E2" t="n">
-        <v>2011.22672533693</v>
+        <v>617.525515861768</v>
       </c>
       <c r="F2" t="n">
-        <v>2489.71414450686</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1199</v>
-      </c>
-      <c r="I2" t="n">
-        <v>175.919005318232</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
+        <v>722.74125647015</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43862</v>
+        <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>1240.8519825714</v>
+        <v>265.218733033624</v>
       </c>
       <c r="C3" t="n">
-        <v>832.868854156225</v>
+        <v>190.094296190274</v>
       </c>
       <c r="D3" t="n">
-        <v>682.512708652025</v>
+        <v>160.695754797774</v>
       </c>
       <c r="E3" t="n">
-        <v>1912.15576626722</v>
+        <v>378.587397786261</v>
       </c>
       <c r="F3" t="n">
-        <v>2442.14351617259</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>306</v>
-      </c>
-      <c r="I3" t="n">
-        <v>934.851982571398</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
+        <v>461.839866994222</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43891</v>
+        <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>4839.01115807679</v>
+        <v>959.140975462608</v>
       </c>
       <c r="C4" t="n">
-        <v>2721.75453225216</v>
+        <v>580.136226421684</v>
       </c>
       <c r="D4" t="n">
-        <v>2056.51603994874</v>
+        <v>452.871531399157</v>
       </c>
       <c r="E4" t="n">
-        <v>9255.90991863102</v>
+        <v>1673.75759473048</v>
       </c>
       <c r="F4" t="n">
-        <v>13532.5249842636</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4642.01115807679</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
+        <v>2306.98077306206</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>11017.567668366</v>
+        <v>1647.98285268328</v>
       </c>
       <c r="C5" t="n">
-        <v>5276.81875513249</v>
+        <v>883.730065513308</v>
       </c>
       <c r="D5" t="n">
-        <v>3716.18736505042</v>
+        <v>653.455274915855</v>
       </c>
       <c r="E5" t="n">
-        <v>26045.7273785684</v>
+        <v>3346.5215424998</v>
       </c>
       <c r="F5" t="n">
-        <v>43888.1346307824</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>116</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10901.567668366</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
+        <v>5084.18429627872</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43952</v>
+        <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>15062.1352682869</v>
+        <v>2298.2240533766</v>
       </c>
       <c r="C6" t="n">
-        <v>6461.56633606222</v>
+        <v>1118.42138630172</v>
       </c>
       <c r="D6" t="n">
-        <v>4344.13173978487</v>
+        <v>792.648484827907</v>
       </c>
       <c r="E6" t="n">
-        <v>41555.5461964208</v>
+        <v>5305.40843188142</v>
       </c>
       <c r="F6" t="n">
-        <v>78164.1734353441</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14972.1352682869</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
+        <v>8784.96839742313</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43983</v>
+        <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>8724.01525434972</v>
+        <v>1105.47480402503</v>
       </c>
       <c r="C7" t="n">
-        <v>3820.41526997848</v>
+        <v>563.44819859456</v>
       </c>
       <c r="D7" t="n">
-        <v>2590.58594484808</v>
+        <v>407.424884902047</v>
       </c>
       <c r="E7" t="n">
-        <v>23369.5105608721</v>
+        <v>2399.00848236973</v>
       </c>
       <c r="F7" t="n">
-        <v>43024.5180076193</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>114</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8610.01525434972</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
+        <v>3809.20524252471</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>3673.59877436925</v>
+        <v>621.768143457951</v>
       </c>
       <c r="C8" t="n">
-        <v>1726.1522124805</v>
+        <v>327.755547531583</v>
       </c>
       <c r="D8" t="n">
-        <v>1205.76415961889</v>
+        <v>240.522962254209</v>
       </c>
       <c r="E8" t="n">
-        <v>8915.29180029911</v>
+        <v>1291.01179685335</v>
       </c>
       <c r="F8" t="n">
-        <v>15299.7737036174</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="n">
-        <v>96</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3577.59877436925</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
+        <v>1990.37627801672</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44044</v>
+        <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>1578.93502015431</v>
+        <v>368.644227687665</v>
       </c>
       <c r="C9" t="n">
-        <v>792.503767142619</v>
+        <v>200.635594975879</v>
       </c>
       <c r="D9" t="n">
-        <v>569.49928461467</v>
+        <v>149.334304323829</v>
       </c>
       <c r="E9" t="n">
-        <v>3503.47900864373</v>
+        <v>734.444771523487</v>
       </c>
       <c r="F9" t="n">
-        <v>5652.21780038507</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="n">
-        <v>96</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1482.93502015431</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
+        <v>1101.92217553575</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44075</v>
+        <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>1260.71847723756</v>
+        <v>430.630317294459</v>
       </c>
       <c r="C10" t="n">
-        <v>625.244669225489</v>
+        <v>225.010840450154</v>
       </c>
       <c r="D10" t="n">
-        <v>446.980569287069</v>
+        <v>164.48523739285</v>
       </c>
       <c r="E10" t="n">
-        <v>2842.72502712157</v>
+        <v>904.472165546705</v>
       </c>
       <c r="F10" t="n">
-        <v>4636.71250631928</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="n">
-        <v>102</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1158.71847723756</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
+        <v>1405.11308535192</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>1390.50022131881</v>
+        <v>418.761705335908</v>
       </c>
       <c r="C11" t="n">
-        <v>654.24664058466</v>
+        <v>215.10578264451</v>
       </c>
       <c r="D11" t="n">
-        <v>457.270334672973</v>
+        <v>156.071386037183</v>
       </c>
       <c r="E11" t="n">
-        <v>3368.30296761349</v>
+        <v>899.474190480131</v>
       </c>
       <c r="F11" t="n">
-        <v>5772.95612396114</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="n">
-        <v>157</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1233.50022131881</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
+        <v>1418.39949534036</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44136</v>
+        <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>1784.16961650408</v>
+        <v>592.488726973702</v>
       </c>
       <c r="C12" t="n">
-        <v>777.935476389915</v>
+        <v>286.020948103354</v>
       </c>
       <c r="D12" t="n">
-        <v>526.55524352183</v>
+        <v>202.007571233038</v>
       </c>
       <c r="E12" t="n">
-        <v>4809.07250923134</v>
+        <v>1382.71909443579</v>
       </c>
       <c r="F12" t="n">
-        <v>8893.59004974966</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="n">
-        <v>276</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1508.16961650408</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
+        <v>2306.75691581156</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44166</v>
+        <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>3003.86902053557</v>
+        <v>1006.56449899656</v>
       </c>
       <c r="C13" t="n">
-        <v>1154.6648830106</v>
+        <v>443.662253778461</v>
       </c>
       <c r="D13" t="n">
-        <v>742.216329053881</v>
+        <v>301.465279626462</v>
       </c>
       <c r="E13" t="n">
-        <v>9747.58867720652</v>
+        <v>2664.13069749438</v>
       </c>
       <c r="F13" t="n">
-        <v>20711.8649493645</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="n">
-        <v>104</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2899.86902053557</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
+        <v>4855.2559203011</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>2606.97850738586</v>
+        <v>574.614399114215</v>
       </c>
       <c r="C14" t="n">
-        <v>983.078804314847</v>
+        <v>258.063503869031</v>
       </c>
       <c r="D14" t="n">
-        <v>627.07553112597</v>
+        <v>176.740166893073</v>
       </c>
       <c r="E14" t="n">
-        <v>8710.644123569</v>
+        <v>1481.294037034</v>
       </c>
       <c r="F14" t="n">
-        <v>18933.4306445848</v>
+        <v>2649.26203748475</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>127</v>
+        <v>1199</v>
       </c>
       <c r="I14" t="n">
-        <v>2479.97850738586</v>
+        <v>-624.385600885785</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -837,1084 +744,1506 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44228</v>
+        <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>2321.15668498155</v>
+        <v>318.11821985731</v>
       </c>
       <c r="C15" t="n">
-        <v>856.285442870883</v>
+        <v>148.006138425897</v>
       </c>
       <c r="D15" t="n">
-        <v>541.429046698893</v>
+        <v>102.893949334929</v>
       </c>
       <c r="E15" t="n">
-        <v>8022.55421856795</v>
+        <v>780.802590626423</v>
       </c>
       <c r="F15" t="n">
-        <v>17907.1538053664</v>
+        <v>1348.95997060834</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="I15" t="n">
-        <v>2275.15668498155</v>
+        <v>12.1182198573102</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>11138.8712007665</v>
+        <v>1199.29319134794</v>
       </c>
       <c r="C16" t="n">
-        <v>2842.03545988298</v>
+        <v>434.024709717487</v>
       </c>
       <c r="D16" t="n">
-        <v>1562.71774534912</v>
+        <v>272.095233297093</v>
       </c>
       <c r="E16" t="n">
-        <v>72257.6440350461</v>
+        <v>4250.45804512341</v>
       </c>
       <c r="F16" t="n">
-        <v>281932.058308779</v>
+        <v>9651.70851616077</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="I16" t="n">
-        <v>11056.8712007665</v>
+        <v>1002.29319134794</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>29782.6807357234</v>
+        <v>2089.16469845001</v>
       </c>
       <c r="C17" t="n">
-        <v>5578.04311134334</v>
+        <v>651.937237384812</v>
       </c>
       <c r="D17" t="n">
-        <v>2755.88126428723</v>
+        <v>385.762073522192</v>
       </c>
       <c r="E17" t="n">
-        <v>365897.325719392</v>
+        <v>9401.2702453973</v>
       </c>
       <c r="F17" t="n">
-        <v>2953764.37934847</v>
+        <v>25998.0880756386</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I17" t="n">
-        <v>29675.6807357234</v>
+        <v>1973.16469845001</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>43657.1133817582</v>
+        <v>2926.52141323771</v>
       </c>
       <c r="C18" t="n">
-        <v>6874.21192468393</v>
+        <v>817.526494851996</v>
       </c>
       <c r="D18" t="n">
-        <v>3210.12371156627</v>
+        <v>463.985664309424</v>
       </c>
       <c r="E18" t="n">
-        <v>813619.745057329</v>
+        <v>15935.4084023239</v>
       </c>
       <c r="F18" t="n">
-        <v>11953499.7352884</v>
+        <v>52227.8067999708</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="I18" t="n">
-        <v>43470.1133817582</v>
+        <v>2836.52141323771</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>22459.960441881</v>
+        <v>1349.76770096944</v>
       </c>
       <c r="C19" t="n">
-        <v>4048.27036724792</v>
+        <v>428.16476113676</v>
       </c>
       <c r="D19" t="n">
-        <v>1974.88191775768</v>
+        <v>254.948009370972</v>
       </c>
       <c r="E19" t="n">
-        <v>301331.740713009</v>
+        <v>5910.37599702965</v>
       </c>
       <c r="F19" t="n">
-        <v>2734249.4625756</v>
+        <v>15966.6533981375</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" t="n">
-        <v>22344.960441881</v>
+        <v>1235.76770096944</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>8065.41525115222</v>
+        <v>737.129316285344</v>
       </c>
       <c r="C20" t="n">
-        <v>1815.1665379492</v>
+        <v>255.58617126296</v>
       </c>
       <c r="D20" t="n">
-        <v>954.656716354132</v>
+        <v>157.539935769049</v>
       </c>
       <c r="E20" t="n">
-        <v>66850.8549266103</v>
+        <v>2794.02867283743</v>
       </c>
       <c r="F20" t="n">
-        <v>337084.474964563</v>
+        <v>6695.12114824679</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>7963.41525115222</v>
+        <v>641.129316285344</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44409</v>
+        <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>3050.44519306227</v>
+        <v>426.86976440291</v>
       </c>
       <c r="C21" t="n">
-        <v>827.369258395209</v>
+        <v>159.668714546599</v>
       </c>
       <c r="D21" t="n">
-        <v>465.15526011988</v>
+        <v>101.426886996207</v>
       </c>
       <c r="E21" t="n">
-        <v>17670.3896335834</v>
+        <v>1437.90255106851</v>
       </c>
       <c r="F21" t="n">
-        <v>61743.4232000497</v>
+        <v>3137.47651302622</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="I21" t="n">
-        <v>2982.44519306227</v>
+        <v>330.86976440291</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>2363.21677357991</v>
+        <v>497.475666711898</v>
       </c>
       <c r="C22" t="n">
-        <v>651.055555822105</v>
+        <v>177.759615486246</v>
       </c>
       <c r="D22" t="n">
-        <v>368.133385294805</v>
+        <v>110.877866886943</v>
       </c>
       <c r="E22" t="n">
-        <v>13307.5999899152</v>
+        <v>1798.41978918491</v>
       </c>
       <c r="F22" t="n">
-        <v>45267.9197322366</v>
+        <v>4148.5403650371</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I22" t="n">
-        <v>2273.21677357991</v>
+        <v>395.475666711898</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44470</v>
+        <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>2640.49260156524</v>
+        <v>480.241707591824</v>
       </c>
       <c r="C23" t="n">
-        <v>680.75106471307</v>
+        <v>169.808301607538</v>
       </c>
       <c r="D23" t="n">
-        <v>375.724122645056</v>
+        <v>105.478754667758</v>
       </c>
       <c r="E23" t="n">
-        <v>16797.6201941236</v>
+        <v>1764.92001699223</v>
       </c>
       <c r="F23" t="n">
-        <v>64282.4580074101</v>
+        <v>4125.14461627128</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="I23" t="n">
-        <v>2539.49260156524</v>
+        <v>323.241707591824</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44501</v>
+        <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>3506.1862016806</v>
+        <v>681.480162889921</v>
       </c>
       <c r="C24" t="n">
-        <v>809.328562580547</v>
+        <v>222.162465386623</v>
       </c>
       <c r="D24" t="n">
-        <v>429.441230187099</v>
+        <v>133.685187128893</v>
       </c>
       <c r="E24" t="n">
-        <v>27618.6443560077</v>
+        <v>2852.75569115447</v>
       </c>
       <c r="F24" t="n">
-        <v>131760.078341319</v>
+        <v>7418.87227217316</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="I24" t="n">
-        <v>3387.1862016806</v>
+        <v>405.480162889921</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44531</v>
+        <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>6382.66551392178</v>
+        <v>1167.30257816408</v>
       </c>
       <c r="C25" t="n">
-        <v>1202.70095703226</v>
+        <v>335.986149197045</v>
       </c>
       <c r="D25" t="n">
-        <v>595.406138486467</v>
+        <v>192.825204044471</v>
       </c>
       <c r="E25" t="n">
-        <v>77344.3601405548</v>
+        <v>6030.49113234504</v>
       </c>
       <c r="F25" t="n">
-        <v>613339.431430439</v>
+        <v>18837.3435317327</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="I25" t="n">
-        <v>6224.66551392178</v>
+        <v>1063.30257816408</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>5417.92915016526</v>
+        <v>652.264526878615</v>
       </c>
       <c r="C26" t="n">
-        <v>1020.4231096747</v>
+        <v>202.297875366909</v>
       </c>
       <c r="D26" t="n">
-        <v>505.087383553094</v>
+        <v>119.422742845092</v>
       </c>
       <c r="E26" t="n">
-        <v>65725.0826726849</v>
+        <v>2965.53761217069</v>
       </c>
       <c r="F26" t="n">
-        <v>521930.974909916</v>
+        <v>8273.87736014095</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="I26" t="n">
-        <v>5347.92915016526</v>
+        <v>525.264526878615</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44593</v>
+        <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>4739.57317125171</v>
+        <v>354.33761882262</v>
       </c>
       <c r="C27" t="n">
-        <v>885.817464714885</v>
+        <v>119.366461079884</v>
       </c>
       <c r="D27" t="n">
-        <v>437.340385334054</v>
+        <v>72.7493194311188</v>
       </c>
       <c r="E27" t="n">
-        <v>58506.8150823562</v>
+        <v>1406.42253096637</v>
       </c>
       <c r="F27" t="n">
-        <v>475250.224823348</v>
+        <v>3499.32116402052</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>4684.57317125171</v>
+        <v>308.33761882262</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44621</v>
+        <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>30181.5937498205</v>
+        <v>1370.36113517586</v>
       </c>
       <c r="C28" t="n">
-        <v>2957.01768150619</v>
+        <v>334.514225434572</v>
       </c>
       <c r="D28" t="n">
-        <v>1198.15088166416</v>
+        <v>180.742318783273</v>
       </c>
       <c r="E28" t="n">
-        <v>2407348.23377873</v>
+        <v>9562.62061359988</v>
       </c>
       <c r="F28" t="n">
-        <v>1545790775.17563</v>
+        <v>39838.1066383952</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I28" t="n">
-        <v>30083.5937498205</v>
+        <v>1288.36113517586</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44652</v>
+        <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>102494.820434976</v>
+        <v>2407.58521115163</v>
       </c>
       <c r="C29" t="n">
-        <v>5813.39128430419</v>
+        <v>492.981988816109</v>
       </c>
       <c r="D29" t="n">
-        <v>2039.81574902204</v>
+        <v>250.466797375999</v>
       </c>
       <c r="E29" t="n">
-        <v>131148010.052603</v>
-      </c>
-      <c r="F29"/>
+        <v>23911.2683203522</v>
+      </c>
+      <c r="F29" t="n">
+        <v>146260.468772846</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I29" t="n">
-        <v>102397.820434976</v>
+        <v>2300.58521115163</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44682</v>
+        <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>167682.92364521</v>
+        <v>3381.92845499987</v>
       </c>
       <c r="C30" t="n">
-        <v>7145.68078051792</v>
+        <v>611.095393222883</v>
       </c>
       <c r="D30" t="n">
-        <v>2342.60438317054</v>
+        <v>297.674255547216</v>
       </c>
       <c r="E30" t="n">
-        <v>3158356746.6908</v>
-      </c>
-      <c r="F30"/>
+        <v>44202.7654991788</v>
+      </c>
+      <c r="F30" t="n">
+        <v>380033.94771723</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
       <c r="H30" t="n">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="I30" t="n">
-        <v>167527.92364521</v>
+        <v>3194.92845499987</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44713</v>
+        <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>71740.1340771558</v>
+        <v>1519.88551186532</v>
       </c>
       <c r="C31" t="n">
-        <v>4175.10403189859</v>
+        <v>330.812537408596</v>
       </c>
       <c r="D31" t="n">
-        <v>1474.30238191933</v>
+        <v>171.652112995612</v>
       </c>
       <c r="E31" t="n">
-        <v>76723241.8874401</v>
-      </c>
-      <c r="F31"/>
+        <v>13298.0361996788</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70413.7323169627</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="H31" t="n">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="I31" t="n">
-        <v>71573.1340771558</v>
+        <v>1404.88551186532</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44743</v>
+        <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>20438.686361785</v>
+        <v>815.243924530984</v>
       </c>
       <c r="C32" t="n">
-        <v>1856.98610910658</v>
+        <v>202.113729974</v>
       </c>
       <c r="D32" t="n">
-        <v>736.767435215731</v>
+        <v>109.81365705169</v>
       </c>
       <c r="E32" t="n">
-        <v>2178950.26331102</v>
+        <v>5523.85827920181</v>
       </c>
       <c r="F32" t="n">
-        <v>6435221361.20889</v>
+        <v>22339.6629218617</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
       <c r="H32" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>20332.686361785</v>
+        <v>713.243924530984</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44774</v>
+        <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>6497.52733725281</v>
+        <v>465.424567764946</v>
       </c>
       <c r="C33" t="n">
-        <v>841.028224052747</v>
+        <v>128.68985752513</v>
       </c>
       <c r="D33" t="n">
-        <v>369.611448617361</v>
+        <v>72.7605066907769</v>
       </c>
       <c r="E33" t="n">
-        <v>206868.786231459</v>
+        <v>2580.95549274657</v>
       </c>
       <c r="F33" t="n">
-        <v>8143306.63369224</v>
+        <v>8603.0193629532</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="I33" t="n">
-        <v>6369.52733725281</v>
+        <v>397.424567764946</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44805</v>
+        <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>4838.4917586446</v>
+        <v>541.639641896911</v>
       </c>
       <c r="C34" t="n">
-        <v>659.276463870522</v>
+        <v>142.476610121311</v>
       </c>
       <c r="D34" t="n">
-        <v>294.294151045584</v>
+        <v>79.0913853976479</v>
       </c>
       <c r="E34" t="n">
-        <v>132876.034272065</v>
+        <v>3286.8470016132</v>
       </c>
       <c r="F34" t="n">
-        <v>3865455.11476698</v>
+        <v>11929.5634158929</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I34" t="n">
-        <v>4740.4917586446</v>
+        <v>451.639641896911</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44835</v>
+        <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>5498.39383675145</v>
+        <v>520.580350585968</v>
       </c>
       <c r="C35" t="n">
-        <v>687.247362184814</v>
+        <v>136.187074587665</v>
       </c>
       <c r="D35" t="n">
-        <v>298.869172383151</v>
+        <v>75.4485388671646</v>
       </c>
       <c r="E35" t="n">
-        <v>194262.330983126</v>
+        <v>3191.03156785353</v>
       </c>
       <c r="F35" t="n">
-        <v>9623887.7772129</v>
+        <v>11694.6462641247</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
       <c r="H35" t="n">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I35" t="n">
-        <v>5380.39383675145</v>
+        <v>419.580350585968</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>7638.67117321644</v>
+        <v>740.033170954031</v>
       </c>
       <c r="C36" t="n">
-        <v>814.609556739994</v>
+        <v>175.88451792791</v>
       </c>
       <c r="D36" t="n">
-        <v>338.130856146562</v>
+        <v>94.1306026854012</v>
       </c>
       <c r="E36" t="n">
-        <v>450038.419217817</v>
+        <v>5436.33514274456</v>
       </c>
       <c r="F36" t="n">
-        <v>90761981.330304</v>
+        <v>23871.1454266058</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I36" t="n">
-        <v>7518.67117321644</v>
+        <v>621.033170954031</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44896</v>
+        <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>15455.8433020857</v>
+        <v>1273.8895131517</v>
       </c>
       <c r="C37" t="n">
-        <v>1206.78831231977</v>
+        <v>260.577417954394</v>
       </c>
       <c r="D37" t="n">
-        <v>459.523405685014</v>
+        <v>132.34387291514</v>
       </c>
       <c r="E37" t="n">
-        <v>3166846.53736196</v>
+        <v>12679.2081477068</v>
       </c>
       <c r="F37" t="n">
-        <v>215108054428567</v>
+        <v>77752.540618787</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="I37" t="n">
-        <v>15383.8433020857</v>
+        <v>1115.8895131517</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>12727.0988468208</v>
+        <v>702.721019754542</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.1453201762</v>
+        <v>161.168818131005</v>
       </c>
       <c r="D38" t="n">
-        <v>391.183046394075</v>
+        <v>85.1733410452129</v>
       </c>
       <c r="E38" t="n">
-        <v>2311234.62844473</v>
+        <v>5535.21298573409</v>
       </c>
       <c r="F38" t="n">
-        <v>2833832547125.85</v>
+        <v>26149.7317715225</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I38" t="n">
-        <v>12687.0988468208</v>
+        <v>632.721019754542</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44958</v>
+        <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>10870.0008285638</v>
+        <v>377.454845754462</v>
       </c>
       <c r="C39" t="n">
-        <v>882.495540238372</v>
+        <v>97.4027806294116</v>
       </c>
       <c r="D39" t="n">
-        <v>339.562108758294</v>
+        <v>53.6936184331635</v>
       </c>
       <c r="E39" t="n">
-        <v>1863572.95543778</v>
+        <v>2372.81197309984</v>
       </c>
       <c r="F39" t="n">
-        <v>715789412799.238</v>
+        <v>8911.19652226019</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>10803.0008285638</v>
+        <v>322.454845754462</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44986</v>
+        <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>104247.083126678</v>
+        <v>1482.21616229755</v>
       </c>
       <c r="C40" t="n">
-        <v>2929.9127570011</v>
+        <v>261.838076904553</v>
       </c>
       <c r="D40" t="n">
-        <v>877.044446996752</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>126.595852571849</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20407.1208573319</v>
+      </c>
+      <c r="F40" t="n">
+        <v>188024.275011779</v>
+      </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I40" t="n">
-        <v>104157.083126678</v>
+        <v>1384.21616229755</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45017</v>
+        <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>524954.156815373</v>
+        <v>2617.47655081522</v>
       </c>
       <c r="C41" t="n">
-        <v>5723.29744286455</v>
+        <v>379.349586823907</v>
       </c>
       <c r="D41" t="n">
-        <v>1435.93553203429</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
+        <v>172.111445349852</v>
+      </c>
+      <c r="E41" t="n">
+        <v>58802.8848858804</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1137929.54533002</v>
+      </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I41" t="n">
-        <v>524879.156815373</v>
+        <v>2520.47655081522</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45047</v>
+        <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>1047347.87819239</v>
+        <v>3682.90638612385</v>
       </c>
       <c r="C42" t="n">
-        <v>6992.96184287536</v>
+        <v>465.648474144971</v>
       </c>
       <c r="D42" t="n">
-        <v>1623.80888169367</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>202.568957574789</v>
+      </c>
+      <c r="E42" t="n">
+        <v>120899.33763252</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4804336.23127694</v>
+      </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="I42" t="n">
-        <v>1047274.87819239</v>
+        <v>3527.90638612385</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45078</v>
+        <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>323233.854080121</v>
+        <v>1629.58749545082</v>
       </c>
       <c r="C43" t="n">
-        <v>4074.95870447166</v>
+        <v>259.786457072405</v>
       </c>
       <c r="D43" t="n">
-        <v>1047.87821018769</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
+        <v>121.480650789906</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28688.48734338</v>
+      </c>
+      <c r="F43" t="n">
+        <v>375311.171854679</v>
+      </c>
       <c r="G43" t="s">
         <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="I43" t="n">
-        <v>323123.854080121</v>
+        <v>1462.58749545082</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45108</v>
+        <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>63749.3889651034</v>
+        <v>864.767129834512</v>
       </c>
       <c r="C44" t="n">
-        <v>1811.39246766309</v>
+        <v>162.189644706873</v>
       </c>
       <c r="D44" t="n">
-        <v>543.459296698263</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>79.9912052027934</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10391.5852572248</v>
+      </c>
+      <c r="F44" t="n">
+        <v>80153.1033309955</v>
+      </c>
       <c r="G44" t="s">
         <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>63650.3889651034</v>
+        <v>758.767129834512</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45139</v>
+        <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>15787.2094014831</v>
+        <v>489.540472929221</v>
       </c>
       <c r="C45" t="n">
-        <v>820.390098150045</v>
+        <v>105.141567153956</v>
       </c>
       <c r="D45" t="n">
-        <v>281.793566616254</v>
+        <v>54.3042438775113</v>
       </c>
       <c r="E45" t="n">
-        <v>39467452.4928857</v>
-      </c>
-      <c r="F45"/>
+        <v>4401.52533645424</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24025.5591224203</v>
+      </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
       <c r="H45" t="n">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I45" t="n">
-        <v>15684.2094014831</v>
+        <v>361.540472929221</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45170</v>
+        <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>11137.4637365497</v>
+        <v>569.227110570658</v>
       </c>
       <c r="C46" t="n">
-        <v>641.662796251346</v>
+        <v>115.929106425716</v>
       </c>
       <c r="D46" t="n">
-        <v>226.017587108737</v>
+        <v>58.7909594451996</v>
       </c>
       <c r="E46" t="n">
-        <v>12768359.8437974</v>
-      </c>
-      <c r="F46"/>
+        <v>5718.27622429253</v>
+      </c>
+      <c r="F46" t="n">
+        <v>35448.4236844618</v>
+      </c>
       <c r="G46" t="s">
         <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I46" t="n">
-        <v>11065.4637365497</v>
+        <v>471.227110570658</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45200</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>12950.8580838338</v>
+        <v>545.673776525854</v>
       </c>
       <c r="C47" t="n">
-        <v>666.457233789773</v>
+        <v>110.973391532904</v>
       </c>
       <c r="D47" t="n">
-        <v>228.382563881573</v>
+        <v>56.2502810867013</v>
       </c>
       <c r="E47" t="n">
-        <v>35117216.1933797</v>
-      </c>
-      <c r="F47"/>
+        <v>5498.3220674052</v>
+      </c>
+      <c r="F47" t="n">
+        <v>34206.5858176796</v>
+      </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I47" t="n">
-        <v>12840.8580838338</v>
+        <v>427.673776525854</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45231</v>
+        <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>19149.7188895593</v>
+        <v>776.518251269221</v>
       </c>
       <c r="C48" t="n">
-        <v>786.365546465311</v>
+        <v>141.81855853354</v>
       </c>
       <c r="D48" t="n">
-        <v>255.62472133386</v>
+        <v>69.3272337550595</v>
       </c>
       <c r="E48" t="n">
-        <v>592727819.714291</v>
-      </c>
-      <c r="F48"/>
+        <v>9905.7656013979</v>
+      </c>
+      <c r="F48" t="n">
+        <v>82501.0259810011</v>
+      </c>
       <c r="G48" t="s">
         <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I48" t="n">
-        <v>19060.7188895593</v>
+        <v>656.518251269221</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1340.61653367896</v>
+      </c>
+      <c r="C49" t="n">
+        <v>206.548470775516</v>
+      </c>
+      <c r="D49" t="n">
+        <v>95.5381470911962</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25707.9475481313</v>
+      </c>
+      <c r="F49" t="n">
+        <v>383736.210541007</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>72</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1268.61653367896</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B50" t="n">
+        <v>733.9268271305</v>
+      </c>
+      <c r="C50" t="n">
+        <v>130.705957138312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>63.3641095977343</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9917.20913112946</v>
+      </c>
+      <c r="F50" t="n">
+        <v>89107.7557480932</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>40</v>
+      </c>
+      <c r="I50" t="n">
+        <v>693.9268271305</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B51" t="n">
+        <v>391.600341557891</v>
+      </c>
+      <c r="C51" t="n">
+        <v>80.6670919739228</v>
+      </c>
+      <c r="D51" t="n">
+        <v>41.0683536170812</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3840.34903430141</v>
+      </c>
+      <c r="F51" t="n">
+        <v>23146.9427665968</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>67</v>
+      </c>
+      <c r="I51" t="n">
+        <v>324.600341557891</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1551.65390507079</v>
+      </c>
+      <c r="C52" t="n">
+        <v>208.992954931459</v>
+      </c>
+      <c r="D52" t="n">
+        <v>92.6885699029162</v>
+      </c>
+      <c r="E52" t="n">
+        <v>42527.8134457453</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1177509.48601553</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="n">
+        <v>90</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1461.65390507079</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2748.40558182192</v>
+      </c>
+      <c r="C53" t="n">
+        <v>298.345890011407</v>
+      </c>
+      <c r="D53" t="n">
+        <v>124.042104717839</v>
+      </c>
+      <c r="E53" t="n">
+        <v>144770.193153476</v>
+      </c>
+      <c r="F53" t="n">
+        <v>18474985.0022665</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="n">
+        <v>75</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2673.40558182192</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3870.95112000103</v>
+      </c>
+      <c r="C54" t="n">
+        <v>363.22264944907</v>
+      </c>
+      <c r="D54" t="n">
+        <v>144.849016025953</v>
+      </c>
+      <c r="E54" t="n">
+        <v>339982.156139638</v>
+      </c>
+      <c r="F54" t="n">
+        <v>275677877.086133</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="n">
+        <v>73</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3797.95112000103</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1697.12693689347</v>
+      </c>
+      <c r="C55" t="n">
+        <v>208.132629834052</v>
+      </c>
+      <c r="D55" t="n">
+        <v>89.7145095884927</v>
+      </c>
+      <c r="E55" t="n">
+        <v>60963.4931887314</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2945368.12001931</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="n">
+        <v>110</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1587.12693689347</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B56" t="n">
+        <v>894.949881922056</v>
+      </c>
+      <c r="C56" t="n">
+        <v>132.495534004668</v>
+      </c>
+      <c r="D56" t="n">
+        <v>60.5167134589044</v>
+      </c>
+      <c r="E56" t="n">
+        <v>19012.992146894</v>
+      </c>
+      <c r="F56" t="n">
+        <v>334912.704852216</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="n">
+        <v>99</v>
+      </c>
+      <c r="I56" t="n">
+        <v>795.949881922056</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B57" t="n">
+        <v>504.121570664804</v>
+      </c>
+      <c r="C57" t="n">
+        <v>87.3056375387026</v>
+      </c>
+      <c r="D57" t="n">
+        <v>41.9370900964872</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7269.10937075911</v>
+      </c>
+      <c r="F57" t="n">
+        <v>71323.5002603069</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="n">
+        <v>103</v>
+      </c>
+      <c r="I57" t="n">
+        <v>401.121570664804</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B58" t="n">
+        <v>585.894022717037</v>
+      </c>
+      <c r="C58" t="n">
+        <v>95.9573166125924</v>
+      </c>
+      <c r="D58" t="n">
+        <v>45.2629451824043</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9653.4373101921</v>
+      </c>
+      <c r="F58" t="n">
+        <v>114444.234799202</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>72</v>
+      </c>
+      <c r="I58" t="n">
+        <v>513.894022717037</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B59" t="n">
+        <v>560.796781044147</v>
+      </c>
+      <c r="C59" t="n">
+        <v>92.0155489140045</v>
+      </c>
+      <c r="D59" t="n">
+        <v>43.429359576538</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9198.80981398663</v>
+      </c>
+      <c r="F59" t="n">
+        <v>108345.837790674</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>110</v>
+      </c>
+      <c r="I59" t="n">
+        <v>450.796781044147</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B60" t="n">
+        <v>798.528377524042</v>
+      </c>
+      <c r="C60" t="n">
+        <v>116.561948146581</v>
+      </c>
+      <c r="D60" t="n">
+        <v>53.0031743618762</v>
+      </c>
+      <c r="E60" t="n">
+        <v>17603.7448732028</v>
+      </c>
+      <c r="F60" t="n">
+        <v>329903.753655522</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="n">
+        <v>89</v>
+      </c>
+      <c r="I60" t="n">
+        <v>709.528377524042</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="B49" t="n">
-        <v>45067.5265442694</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1157.2580865043</v>
-      </c>
-      <c r="D49" t="n">
-        <v>340.041350011937</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="B61" t="n">
+        <v>1380.98186904784</v>
+      </c>
+      <c r="C61" t="n">
+        <v>167.335504956513</v>
+      </c>
+      <c r="D61" t="n">
+        <v>71.8693149917735</v>
+      </c>
+      <c r="E61" t="n">
+        <v>51432.3213922019</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2695844.04143145</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="n">
         <v>74</v>
       </c>
-      <c r="I49" t="n">
-        <v>44993.5265442694</v>
-      </c>
-      <c r="J49" t="s">
-        <v>11</v>
+      <c r="I61" t="n">
+        <v>1306.98186904784</v>
+      </c>
+      <c r="J61" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Rubella.xlsx
+++ b/outcome/appendix/forecast/Rubella.xlsx
@@ -427,19 +427,19 @@
         <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>464.489713763927</v>
+        <v>635.882807881578</v>
       </c>
       <c r="C2" t="n">
-        <v>354.597218026174</v>
+        <v>476.824664449279</v>
       </c>
       <c r="D2" t="n">
-        <v>309.069822199523</v>
+        <v>411.986997373498</v>
       </c>
       <c r="E2" t="n">
-        <v>617.525515861768</v>
+        <v>862.468066142147</v>
       </c>
       <c r="F2" t="n">
-        <v>722.74125647015</v>
+        <v>1021.16060379736</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -451,19 +451,19 @@
         <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>265.218733033624</v>
+        <v>540.444657766179</v>
       </c>
       <c r="C3" t="n">
-        <v>190.094296190274</v>
+        <v>370.251134101507</v>
       </c>
       <c r="D3" t="n">
-        <v>160.695754797774</v>
+        <v>306.31085163776</v>
       </c>
       <c r="E3" t="n">
-        <v>378.587397786261</v>
+        <v>812.700593999181</v>
       </c>
       <c r="F3" t="n">
-        <v>461.839866994222</v>
+        <v>1022.55581302538</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -475,19 +475,19 @@
         <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>959.140975462608</v>
+        <v>1590.76631209137</v>
       </c>
       <c r="C4" t="n">
-        <v>580.136226421684</v>
+        <v>913.380888121969</v>
       </c>
       <c r="D4" t="n">
-        <v>452.871531399157</v>
+        <v>696.336167193079</v>
       </c>
       <c r="E4" t="n">
-        <v>1673.75759473048</v>
+        <v>2961.10523547485</v>
       </c>
       <c r="F4" t="n">
-        <v>2306.98077306206</v>
+        <v>4251.70481859454</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -499,19 +499,19 @@
         <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>1647.98285268328</v>
+        <v>2720.17181350417</v>
       </c>
       <c r="C5" t="n">
-        <v>883.730065513308</v>
+        <v>1354.16310399149</v>
       </c>
       <c r="D5" t="n">
-        <v>653.455274915855</v>
+        <v>969.195431611973</v>
       </c>
       <c r="E5" t="n">
-        <v>3346.5215424998</v>
+        <v>6090.84592434268</v>
       </c>
       <c r="F5" t="n">
-        <v>5084.18429627872</v>
+        <v>9877.88344306697</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -523,19 +523,19 @@
         <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>2298.2240533766</v>
+        <v>3257.20899325869</v>
       </c>
       <c r="C6" t="n">
-        <v>1118.42138630172</v>
+        <v>1466.63235393057</v>
       </c>
       <c r="D6" t="n">
-        <v>792.648484827907</v>
+        <v>1005.55259999502</v>
       </c>
       <c r="E6" t="n">
-        <v>5305.40843188142</v>
+        <v>8366.32890216869</v>
       </c>
       <c r="F6" t="n">
-        <v>8784.96839742313</v>
+        <v>14924.4897467244</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -547,19 +547,19 @@
         <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>1105.47480402503</v>
+        <v>2032.66581111663</v>
       </c>
       <c r="C7" t="n">
-        <v>563.44819859456</v>
+        <v>915.57652550242</v>
       </c>
       <c r="D7" t="n">
-        <v>407.424884902047</v>
+        <v>627.831020083435</v>
       </c>
       <c r="E7" t="n">
-        <v>2399.00848236973</v>
+        <v>5218.44650952963</v>
       </c>
       <c r="F7" t="n">
-        <v>3809.20524252471</v>
+        <v>9305.80290059133</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -571,19 +571,19 @@
         <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>621.768143457951</v>
+        <v>1136.97465037487</v>
       </c>
       <c r="C8" t="n">
-        <v>327.755547531583</v>
+        <v>525.351938930381</v>
       </c>
       <c r="D8" t="n">
-        <v>240.522962254209</v>
+        <v>364.156164849893</v>
       </c>
       <c r="E8" t="n">
-        <v>1291.01179685335</v>
+        <v>2817.29515457991</v>
       </c>
       <c r="F8" t="n">
-        <v>1990.37627801672</v>
+        <v>4899.84439122339</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -595,19 +595,19 @@
         <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>368.644227687665</v>
+        <v>616.533710747097</v>
       </c>
       <c r="C9" t="n">
-        <v>200.635594975879</v>
+        <v>295.237710532274</v>
       </c>
       <c r="D9" t="n">
-        <v>149.334304323829</v>
+        <v>207.795638508517</v>
       </c>
       <c r="E9" t="n">
-        <v>734.444771523487</v>
+        <v>1454.67333760068</v>
       </c>
       <c r="F9" t="n">
-        <v>1101.92217553575</v>
+        <v>2445.17675134358</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -619,19 +619,19 @@
         <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>430.630317294459</v>
+        <v>526.780041792822</v>
       </c>
       <c r="C10" t="n">
-        <v>225.010840450154</v>
+        <v>247.20284081077</v>
       </c>
       <c r="D10" t="n">
-        <v>164.48523739285</v>
+        <v>172.486508505342</v>
       </c>
       <c r="E10" t="n">
-        <v>904.472165546705</v>
+        <v>1277.75695576395</v>
       </c>
       <c r="F10" t="n">
-        <v>1405.11308535192</v>
+        <v>2189.38729083195</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -643,19 +643,19 @@
         <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>418.761705335908</v>
+        <v>505.419338183873</v>
       </c>
       <c r="C11" t="n">
-        <v>215.10578264451</v>
+        <v>229.571101580555</v>
       </c>
       <c r="D11" t="n">
-        <v>156.071386037183</v>
+        <v>157.97999227036</v>
       </c>
       <c r="E11" t="n">
-        <v>899.474190480131</v>
+        <v>1282.4795321993</v>
       </c>
       <c r="F11" t="n">
-        <v>1418.39949534036</v>
+        <v>2268.12331810699</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -667,19 +667,19 @@
         <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>592.488726973702</v>
+        <v>605.011138724106</v>
       </c>
       <c r="C12" t="n">
-        <v>286.020948103354</v>
+        <v>258.008752837354</v>
       </c>
       <c r="D12" t="n">
-        <v>202.007571233038</v>
+        <v>172.913778723541</v>
       </c>
       <c r="E12" t="n">
-        <v>1382.71909443579</v>
+        <v>1678.39174180032</v>
       </c>
       <c r="F12" t="n">
-        <v>2306.75691581156</v>
+        <v>3164.4790427032</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -691,19 +691,19 @@
         <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>1006.56449899656</v>
+        <v>827.27391145941</v>
       </c>
       <c r="C13" t="n">
-        <v>443.662253778461</v>
+        <v>323.713099956165</v>
       </c>
       <c r="D13" t="n">
-        <v>301.465279626462</v>
+        <v>209.411794637989</v>
       </c>
       <c r="E13" t="n">
-        <v>2664.13069749438</v>
+        <v>2603.0828435711</v>
       </c>
       <c r="F13" t="n">
-        <v>4855.2559203011</v>
+        <v>5390.03040196759</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -715,19 +715,19 @@
         <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>574.614399114215</v>
+        <v>666.158449063751</v>
       </c>
       <c r="C14" t="n">
-        <v>258.063503869031</v>
+        <v>259.533490767033</v>
       </c>
       <c r="D14" t="n">
-        <v>176.740166893073</v>
+        <v>167.596502982363</v>
       </c>
       <c r="E14" t="n">
-        <v>1481.294037034</v>
+        <v>2109.85000910454</v>
       </c>
       <c r="F14" t="n">
-        <v>2649.26203748475</v>
+        <v>4390.47355198021</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1199</v>
       </c>
       <c r="I14" t="n">
-        <v>-624.385600885785</v>
+        <v>-532.841550936249</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>318.11821985731</v>
+        <v>563.917126350755</v>
       </c>
       <c r="C15" t="n">
-        <v>148.006138425897</v>
+        <v>218.672492960227</v>
       </c>
       <c r="D15" t="n">
-        <v>102.893949334929</v>
+        <v>140.941789862434</v>
       </c>
       <c r="E15" t="n">
-        <v>780.802590626423</v>
+        <v>1798.63769914096</v>
       </c>
       <c r="F15" t="n">
-        <v>1348.95997060834</v>
+        <v>3762.98031780711</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>306</v>
       </c>
       <c r="I15" t="n">
-        <v>12.1182198573102</v>
+        <v>257.917126350755</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>1199.29319134794</v>
+        <v>1671.36889876513</v>
       </c>
       <c r="C16" t="n">
-        <v>434.024709717487</v>
+        <v>512.656269997239</v>
       </c>
       <c r="D16" t="n">
-        <v>272.095233297093</v>
+        <v>301.361523977449</v>
       </c>
       <c r="E16" t="n">
-        <v>4250.45804512341</v>
+        <v>7741.98972263533</v>
       </c>
       <c r="F16" t="n">
-        <v>9651.70851616077</v>
+        <v>21952.2791955232</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>197</v>
       </c>
       <c r="I16" t="n">
-        <v>1002.29319134794</v>
+        <v>1474.36889876513</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>2089.16469845001</v>
+        <v>2864.58363326346</v>
       </c>
       <c r="C17" t="n">
-        <v>651.937237384812</v>
+        <v>754.301549402641</v>
       </c>
       <c r="D17" t="n">
-        <v>385.762073522192</v>
+        <v>418.885337240028</v>
       </c>
       <c r="E17" t="n">
-        <v>9401.2702453973</v>
+        <v>17350.2616142612</v>
       </c>
       <c r="F17" t="n">
-        <v>25998.0880756386</v>
+        <v>62857.7961973449</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>116</v>
       </c>
       <c r="I17" t="n">
-        <v>1973.16469845001</v>
+        <v>2748.58363326346</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>2926.52141323771</v>
+        <v>3426.00859700575</v>
       </c>
       <c r="C18" t="n">
-        <v>817.526494851996</v>
+        <v>833.625329203159</v>
       </c>
       <c r="D18" t="n">
-        <v>463.985664309424</v>
+        <v>449.899897121457</v>
       </c>
       <c r="E18" t="n">
-        <v>15935.4084023239</v>
+        <v>24054.6631155479</v>
       </c>
       <c r="F18" t="n">
-        <v>52227.8067999708</v>
+        <v>100839.250777198</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="n">
-        <v>2836.52141323771</v>
+        <v>3336.00859700575</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>1349.76770096944</v>
+        <v>2123.03733049967</v>
       </c>
       <c r="C19" t="n">
-        <v>428.16476113676</v>
+        <v>557.436610077971</v>
       </c>
       <c r="D19" t="n">
-        <v>254.948009370972</v>
+        <v>309.236419811966</v>
       </c>
       <c r="E19" t="n">
-        <v>5910.37599702965</v>
+        <v>12926.5850667927</v>
       </c>
       <c r="F19" t="n">
-        <v>15966.6533981375</v>
+        <v>47068.4399228002</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>114</v>
       </c>
       <c r="I19" t="n">
-        <v>1235.76770096944</v>
+        <v>2009.03733049967</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>737.129316285344</v>
+        <v>1179.44100370658</v>
       </c>
       <c r="C20" t="n">
-        <v>255.58617126296</v>
+        <v>341.441062871546</v>
       </c>
       <c r="D20" t="n">
-        <v>157.539935769049</v>
+        <v>196.378873864953</v>
       </c>
       <c r="E20" t="n">
-        <v>2794.02867283743</v>
+        <v>6032.36011064067</v>
       </c>
       <c r="F20" t="n">
-        <v>6695.12114824679</v>
+        <v>18673.1560871378</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>641.129316285344</v>
+        <v>1083.44100370658</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>426.86976440291</v>
+        <v>635.774125108411</v>
       </c>
       <c r="C21" t="n">
-        <v>159.668714546599</v>
+        <v>203.136849552757</v>
       </c>
       <c r="D21" t="n">
-        <v>101.426886996207</v>
+        <v>121.292436936131</v>
       </c>
       <c r="E21" t="n">
-        <v>1437.90255106851</v>
+        <v>2750.87074776701</v>
       </c>
       <c r="F21" t="n">
-        <v>3137.47651302622</v>
+        <v>7356.24078113438</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>96</v>
       </c>
       <c r="I21" t="n">
-        <v>330.86976440291</v>
+        <v>539.774125108411</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>497.475666711898</v>
+        <v>541.804006869229</v>
       </c>
       <c r="C22" t="n">
-        <v>177.759615486246</v>
+        <v>174.134343924642</v>
       </c>
       <c r="D22" t="n">
-        <v>110.877866886943</v>
+        <v>104.210985754071</v>
       </c>
       <c r="E22" t="n">
-        <v>1798.41978918491</v>
+        <v>2321.62082735302</v>
       </c>
       <c r="F22" t="n">
-        <v>4148.5403650371</v>
+        <v>6157.48308971733</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>102</v>
       </c>
       <c r="I22" t="n">
-        <v>395.475666711898</v>
+        <v>439.804006869229</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>480.241707591824</v>
+        <v>518.897191295429</v>
       </c>
       <c r="C23" t="n">
-        <v>169.808301607538</v>
+        <v>164.123249903965</v>
       </c>
       <c r="D23" t="n">
-        <v>105.478754667758</v>
+        <v>97.6171425040627</v>
       </c>
       <c r="E23" t="n">
-        <v>1764.92001699223</v>
+        <v>2283.14804324875</v>
       </c>
       <c r="F23" t="n">
-        <v>4125.14461627128</v>
+        <v>6193.29023358014</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>157</v>
       </c>
       <c r="I23" t="n">
-        <v>323.241707591824</v>
+        <v>361.897191295429</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>681.480162889921</v>
+        <v>620.764733053404</v>
       </c>
       <c r="C24" t="n">
-        <v>222.162465386623</v>
+        <v>184.782095993059</v>
       </c>
       <c r="D24" t="n">
-        <v>133.685187128893</v>
+        <v>107.395685435001</v>
       </c>
       <c r="E24" t="n">
-        <v>2852.75569115447</v>
+        <v>3025.90288660338</v>
       </c>
       <c r="F24" t="n">
-        <v>7418.87227217316</v>
+        <v>8972.6804090192</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>276</v>
       </c>
       <c r="I24" t="n">
-        <v>405.480162889921</v>
+        <v>344.764733053404</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>1167.30257816408</v>
+        <v>848.862507256419</v>
       </c>
       <c r="C25" t="n">
-        <v>335.986149197045</v>
+        <v>230.505788205207</v>
       </c>
       <c r="D25" t="n">
-        <v>192.825204044471</v>
+        <v>129.459587520291</v>
       </c>
       <c r="E25" t="n">
-        <v>6030.49113234504</v>
+        <v>4862.17749992827</v>
       </c>
       <c r="F25" t="n">
-        <v>18837.3435317327</v>
+        <v>16704.8573507673</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>104</v>
       </c>
       <c r="I25" t="n">
-        <v>1063.30257816408</v>
+        <v>744.862507256419</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>652.264526878615</v>
+        <v>681.866701366621</v>
       </c>
       <c r="C26" t="n">
-        <v>202.297875366909</v>
+        <v>189.038744850488</v>
       </c>
       <c r="D26" t="n">
-        <v>119.422742845092</v>
+        <v>106.986848188266</v>
       </c>
       <c r="E26" t="n">
-        <v>2965.53761217069</v>
+        <v>3763.31822825905</v>
       </c>
       <c r="F26" t="n">
-        <v>8273.87736014095</v>
+        <v>12489.0586827627</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>127</v>
       </c>
       <c r="I26" t="n">
-        <v>525.264526878615</v>
+        <v>554.866701366621</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>354.33761882262</v>
+        <v>576.052139476482</v>
       </c>
       <c r="C27" t="n">
-        <v>119.366461079884</v>
+        <v>161.954857942367</v>
       </c>
       <c r="D27" t="n">
-        <v>72.7493194311188</v>
+        <v>92.1361741155702</v>
       </c>
       <c r="E27" t="n">
-        <v>1406.42253096637</v>
+        <v>3101.34230505045</v>
       </c>
       <c r="F27" t="n">
-        <v>3499.32116402052</v>
+        <v>10059.0077758896</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>308.33761882262</v>
+        <v>530.052139476482</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>1370.36113517586</v>
+        <v>1713.29799074299</v>
       </c>
       <c r="C28" t="n">
-        <v>334.514225434572</v>
+        <v>363.123001968913</v>
       </c>
       <c r="D28" t="n">
-        <v>180.742318783273</v>
+        <v>186.689176812305</v>
       </c>
       <c r="E28" t="n">
-        <v>9562.62061359988</v>
+        <v>15832.0355577756</v>
       </c>
       <c r="F28" t="n">
-        <v>39838.1066383952</v>
+        <v>89127.8881585677</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>82</v>
       </c>
       <c r="I28" t="n">
-        <v>1288.36113517586</v>
+        <v>1631.29799074299</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>2407.58521115163</v>
+        <v>2939.86077229163</v>
       </c>
       <c r="C29" t="n">
-        <v>492.981988816109</v>
+        <v>524.473438931129</v>
       </c>
       <c r="D29" t="n">
-        <v>250.466797375999</v>
+        <v>254.401964958474</v>
       </c>
       <c r="E29" t="n">
-        <v>23911.2683203522</v>
+        <v>39566.4518419882</v>
       </c>
       <c r="F29" t="n">
-        <v>146260.468772846</v>
+        <v>353619.948320526</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>107</v>
       </c>
       <c r="I29" t="n">
-        <v>2300.58521115163</v>
+        <v>2832.86077229163</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>3381.92845499987</v>
+        <v>3513.90366466431</v>
       </c>
       <c r="C30" t="n">
-        <v>611.095393222883</v>
+        <v>579.635329579899</v>
       </c>
       <c r="D30" t="n">
-        <v>297.674255547216</v>
+        <v>274.046399590128</v>
       </c>
       <c r="E30" t="n">
-        <v>44202.7654991788</v>
+        <v>56900.3836772502</v>
       </c>
       <c r="F30" t="n">
-        <v>380033.94771723</v>
+        <v>657721.001838607</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>187</v>
       </c>
       <c r="I30" t="n">
-        <v>3194.92845499987</v>
+        <v>3326.90366466431</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>1519.88551186532</v>
+        <v>2169.79959001967</v>
       </c>
       <c r="C31" t="n">
-        <v>330.812537408596</v>
+        <v>400.291377322786</v>
       </c>
       <c r="D31" t="n">
-        <v>171.652112995612</v>
+        <v>196.337227120376</v>
       </c>
       <c r="E31" t="n">
-        <v>13298.0361996788</v>
+        <v>27056.2321648477</v>
       </c>
       <c r="F31" t="n">
-        <v>70413.7323169627</v>
+        <v>218793.710027735</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>115</v>
       </c>
       <c r="I31" t="n">
-        <v>1404.88551186532</v>
+        <v>2054.79959001967</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>815.243924530984</v>
+        <v>1201.28118612105</v>
       </c>
       <c r="C32" t="n">
-        <v>202.113729974</v>
+        <v>253.702388580726</v>
       </c>
       <c r="D32" t="n">
-        <v>109.81365705169</v>
+        <v>130.274111489634</v>
       </c>
       <c r="E32" t="n">
-        <v>5523.85827920181</v>
+        <v>11182.588416756</v>
       </c>
       <c r="F32" t="n">
-        <v>22339.6629218617</v>
+        <v>63481.3824113044</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>713.243924530984</v>
+        <v>1099.28118612105</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>465.424567764946</v>
+        <v>645.616942921816</v>
       </c>
       <c r="C33" t="n">
-        <v>128.68985752513</v>
+        <v>155.842822900428</v>
       </c>
       <c r="D33" t="n">
-        <v>72.7605066907769</v>
+        <v>83.8669599331838</v>
       </c>
       <c r="E33" t="n">
-        <v>2580.95549274657</v>
+        <v>4602.95365192366</v>
       </c>
       <c r="F33" t="n">
-        <v>8603.0193629532</v>
+        <v>19599.4900532625</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>68</v>
       </c>
       <c r="I33" t="n">
-        <v>397.424567764946</v>
+        <v>577.616942921816</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>541.639641896911</v>
+        <v>549.471909594711</v>
       </c>
       <c r="C34" t="n">
-        <v>142.476610121311</v>
+        <v>135.154487749503</v>
       </c>
       <c r="D34" t="n">
-        <v>79.0913853976479</v>
+        <v>73.2252717761325</v>
       </c>
       <c r="E34" t="n">
-        <v>3286.8470016132</v>
+        <v>3779.13197329791</v>
       </c>
       <c r="F34" t="n">
-        <v>11929.5634158929</v>
+        <v>15514.955706784</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>90</v>
       </c>
       <c r="I34" t="n">
-        <v>451.639641896911</v>
+        <v>459.471909594711</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>520.580350585968</v>
+        <v>525.764908652378</v>
       </c>
       <c r="C35" t="n">
-        <v>136.187074587665</v>
+        <v>128.230048120538</v>
       </c>
       <c r="D35" t="n">
-        <v>75.4485388671646</v>
+        <v>69.2625490524996</v>
       </c>
       <c r="E35" t="n">
-        <v>3191.03156785353</v>
+        <v>3675.03531059963</v>
       </c>
       <c r="F35" t="n">
-        <v>11694.6462641247</v>
+        <v>15336.331098296</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>101</v>
       </c>
       <c r="I35" t="n">
-        <v>419.580350585968</v>
+        <v>424.764908652378</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>740.033170954031</v>
+        <v>628.787676938437</v>
       </c>
       <c r="C36" t="n">
-        <v>175.88451792791</v>
+        <v>144.101845156274</v>
       </c>
       <c r="D36" t="n">
-        <v>94.1306026854012</v>
+        <v>76.1333624319908</v>
       </c>
       <c r="E36" t="n">
-        <v>5436.33514274456</v>
+        <v>4960.35929399394</v>
       </c>
       <c r="F36" t="n">
-        <v>23871.1454266058</v>
+        <v>23471.7481410716</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>119</v>
       </c>
       <c r="I36" t="n">
-        <v>621.033170954031</v>
+        <v>509.787676938437</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>1273.8895131517</v>
+        <v>859.857634638455</v>
       </c>
       <c r="C37" t="n">
-        <v>260.577417954394</v>
+        <v>178.526209106475</v>
       </c>
       <c r="D37" t="n">
-        <v>132.34387291514</v>
+        <v>91.1353683305057</v>
       </c>
       <c r="E37" t="n">
-        <v>12679.2081477068</v>
+        <v>8294.01551668876</v>
       </c>
       <c r="F37" t="n">
-        <v>77752.540618787</v>
+        <v>49041.1658680481</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>158</v>
       </c>
       <c r="I37" t="n">
-        <v>1115.8895131517</v>
+        <v>701.857634638455</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>702.721019754542</v>
+        <v>689.849419849753</v>
       </c>
       <c r="C38" t="n">
-        <v>161.168818131005</v>
+        <v>148.375865129448</v>
       </c>
       <c r="D38" t="n">
-        <v>85.1733410452129</v>
+        <v>76.6723049764065</v>
       </c>
       <c r="E38" t="n">
-        <v>5535.21298573409</v>
+        <v>6184.28367995938</v>
       </c>
       <c r="F38" t="n">
-        <v>26149.7317715225</v>
+        <v>33645.4116582233</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>70</v>
       </c>
       <c r="I38" t="n">
-        <v>632.721019754542</v>
+        <v>619.849419849753</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>377.454845754462</v>
+        <v>582.207886112052</v>
       </c>
       <c r="C39" t="n">
-        <v>97.4027806294116</v>
+        <v>128.405542234795</v>
       </c>
       <c r="D39" t="n">
-        <v>53.6936184331635</v>
+        <v>66.9342072843299</v>
       </c>
       <c r="E39" t="n">
-        <v>2372.81197309984</v>
+        <v>4959.19495301071</v>
       </c>
       <c r="F39" t="n">
-        <v>8911.19652226019</v>
+        <v>25494.0790051414</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>322.454845754462</v>
+        <v>527.207886112052</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>1482.21616229755</v>
+        <v>1734.63380658141</v>
       </c>
       <c r="C40" t="n">
-        <v>261.838076904553</v>
+        <v>278.105587700454</v>
       </c>
       <c r="D40" t="n">
-        <v>126.595852571849</v>
+        <v>130.284071334276</v>
       </c>
       <c r="E40" t="n">
-        <v>20407.1208573319</v>
+        <v>30112.6609101111</v>
       </c>
       <c r="F40" t="n">
-        <v>188024.275011779</v>
+        <v>385714.795536464</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>98</v>
       </c>
       <c r="I40" t="n">
-        <v>1384.21616229755</v>
+        <v>1636.63380658141</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>2617.47655081522</v>
+        <v>2978.20570798977</v>
       </c>
       <c r="C41" t="n">
-        <v>379.349586823907</v>
+        <v>395.505493718824</v>
       </c>
       <c r="D41" t="n">
-        <v>172.111445349852</v>
+        <v>174.647632455512</v>
       </c>
       <c r="E41" t="n">
-        <v>58802.8848858804</v>
+        <v>84923.3393121188</v>
       </c>
       <c r="F41" t="n">
-        <v>1137929.54533002</v>
+        <v>2537299.95833463</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>97</v>
       </c>
       <c r="I41" t="n">
-        <v>2520.47655081522</v>
+        <v>2881.20570798977</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>3682.90638612385</v>
+        <v>3558.65165726407</v>
       </c>
       <c r="C42" t="n">
-        <v>465.648474144971</v>
+        <v>436.297753990739</v>
       </c>
       <c r="D42" t="n">
-        <v>202.568957574789</v>
+        <v>188.047232985405</v>
       </c>
       <c r="E42" t="n">
-        <v>120899.33763252</v>
+        <v>127945.399336441</v>
       </c>
       <c r="F42" t="n">
-        <v>4804336.23127694</v>
+        <v>6193699.68340726</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>155</v>
       </c>
       <c r="I42" t="n">
-        <v>3527.90638612385</v>
+        <v>3403.65165726407</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>1629.58749545082</v>
+        <v>2193.531274596</v>
       </c>
       <c r="C43" t="n">
-        <v>259.786457072405</v>
+        <v>308.075904318324</v>
       </c>
       <c r="D43" t="n">
-        <v>121.480650789906</v>
+        <v>138.411216128062</v>
       </c>
       <c r="E43" t="n">
-        <v>28688.48734338</v>
+        <v>53596.2195294065</v>
       </c>
       <c r="F43" t="n">
-        <v>375311.171854679</v>
+        <v>1200959.96691442</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>167</v>
       </c>
       <c r="I43" t="n">
-        <v>1462.58749545082</v>
+        <v>2026.531274596</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>864.767129834512</v>
+        <v>1212.33098840256</v>
       </c>
       <c r="C44" t="n">
-        <v>162.189644706873</v>
+        <v>200.065664480979</v>
       </c>
       <c r="D44" t="n">
-        <v>79.9912052027934</v>
+        <v>94.6023976031009</v>
       </c>
       <c r="E44" t="n">
-        <v>10391.5852572248</v>
+        <v>19610.8053769811</v>
       </c>
       <c r="F44" t="n">
-        <v>80153.1033309955</v>
+        <v>226343.136029591</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>758.767129834512</v>
+        <v>1106.33098840256</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>489.540472929221</v>
+        <v>650.583542799705</v>
       </c>
       <c r="C45" t="n">
-        <v>105.141567153956</v>
+        <v>125.795561620444</v>
       </c>
       <c r="D45" t="n">
-        <v>54.3042438775113</v>
+        <v>62.6802378712012</v>
       </c>
       <c r="E45" t="n">
-        <v>4401.52533645424</v>
+        <v>7308.74436776987</v>
       </c>
       <c r="F45" t="n">
-        <v>24025.5591224203</v>
+        <v>51826.5517670052</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>128</v>
       </c>
       <c r="I45" t="n">
-        <v>361.540472929221</v>
+        <v>522.583542799705</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>569.227110570658</v>
+        <v>553.336540780437</v>
       </c>
       <c r="C46" t="n">
-        <v>115.929106425716</v>
+        <v>109.97332813057</v>
       </c>
       <c r="D46" t="n">
-        <v>58.7909594451996</v>
+        <v>55.3084489768145</v>
       </c>
       <c r="E46" t="n">
-        <v>5718.27622429253</v>
+        <v>5856.37858882039</v>
       </c>
       <c r="F46" t="n">
-        <v>35448.4236844618</v>
+        <v>38624.062130998</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>98</v>
       </c>
       <c r="I46" t="n">
-        <v>471.227110570658</v>
+        <v>455.336540780437</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>545.673776525854</v>
+        <v>529.223447787828</v>
       </c>
       <c r="C47" t="n">
-        <v>110.973391532904</v>
+        <v>104.785030528032</v>
       </c>
       <c r="D47" t="n">
-        <v>56.2502810867013</v>
+        <v>52.6317059333603</v>
       </c>
       <c r="E47" t="n">
-        <v>5498.3220674052</v>
+        <v>5646.86295498679</v>
       </c>
       <c r="F47" t="n">
-        <v>34206.5858176796</v>
+        <v>37607.7853729454</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>118</v>
       </c>
       <c r="I47" t="n">
-        <v>427.673776525854</v>
+        <v>411.223447787828</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>776.518251269221</v>
+        <v>632.826872992194</v>
       </c>
       <c r="C48" t="n">
-        <v>141.81855853354</v>
+        <v>117.484330961075</v>
       </c>
       <c r="D48" t="n">
-        <v>69.3272337550595</v>
+        <v>57.7456595373567</v>
       </c>
       <c r="E48" t="n">
-        <v>9905.7656013979</v>
+        <v>7779.91876455593</v>
       </c>
       <c r="F48" t="n">
-        <v>82501.0259810011</v>
+        <v>61778.1098561543</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>120</v>
       </c>
       <c r="I48" t="n">
-        <v>656.518251269221</v>
+        <v>512.826872992194</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>44896</v>
       </c>
       <c r="B49" t="n">
-        <v>1340.61653367896</v>
+        <v>865.393332234937</v>
       </c>
       <c r="C49" t="n">
-        <v>206.548470775516</v>
+        <v>144.648481920936</v>
       </c>
       <c r="D49" t="n">
-        <v>95.5381470911962</v>
+        <v>68.6819931256763</v>
       </c>
       <c r="E49" t="n">
-        <v>25707.9475481313</v>
+        <v>13574.1728591673</v>
       </c>
       <c r="F49" t="n">
-        <v>383736.210541007</v>
+        <v>149872.752926551</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>72</v>
       </c>
       <c r="I49" t="n">
-        <v>1268.61653367896</v>
+        <v>793.393332234937</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>44927</v>
       </c>
       <c r="B50" t="n">
-        <v>733.9268271305</v>
+        <v>693.86404887612</v>
       </c>
       <c r="C50" t="n">
-        <v>130.705957138312</v>
+        <v>121.38633044844</v>
       </c>
       <c r="D50" t="n">
-        <v>63.3641095977343</v>
+        <v>58.501369019574</v>
       </c>
       <c r="E50" t="n">
-        <v>9917.20913112946</v>
+        <v>9771.49716858153</v>
       </c>
       <c r="F50" t="n">
-        <v>89107.7557480932</v>
+        <v>92828.2013274234</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>40</v>
       </c>
       <c r="I50" t="n">
-        <v>693.9268271305</v>
+        <v>653.86404887612</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>44958</v>
       </c>
       <c r="B51" t="n">
-        <v>391.600341557891</v>
+        <v>585.300911699878</v>
       </c>
       <c r="C51" t="n">
-        <v>80.6670919739228</v>
+        <v>105.825921356359</v>
       </c>
       <c r="D51" t="n">
-        <v>41.0683536170812</v>
+        <v>51.560037243151</v>
       </c>
       <c r="E51" t="n">
-        <v>3840.34903430141</v>
+        <v>7639.27228814279</v>
       </c>
       <c r="F51" t="n">
-        <v>23146.9427665968</v>
+        <v>65557.1123051005</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="I51" t="n">
-        <v>324.600341557891</v>
+        <v>518.300911699878</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>44986</v>
       </c>
       <c r="B52" t="n">
-        <v>1551.65390507079</v>
+        <v>1745.37097735787</v>
       </c>
       <c r="C52" t="n">
-        <v>208.992954931459</v>
+        <v>222.825555873861</v>
       </c>
       <c r="D52" t="n">
-        <v>92.6885699029162</v>
+        <v>97.2199306339915</v>
       </c>
       <c r="E52" t="n">
-        <v>42527.8134457453</v>
+        <v>55702.127738822</v>
       </c>
       <c r="F52" t="n">
-        <v>1177509.48601553</v>
+        <v>2086642.05015758</v>
       </c>
       <c r="G52" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="I52" t="n">
-        <v>1461.65390507079</v>
+        <v>1655.37097735787</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -1963,19 +1963,19 @@
         <v>45017</v>
       </c>
       <c r="B53" t="n">
-        <v>2748.40558182192</v>
+        <v>2997.51270423833</v>
       </c>
       <c r="C53" t="n">
-        <v>298.345890011407</v>
+        <v>312.815324440207</v>
       </c>
       <c r="D53" t="n">
-        <v>124.042104717839</v>
+        <v>128.580848837936</v>
       </c>
       <c r="E53" t="n">
-        <v>144770.193153476</v>
+        <v>180166.570708225</v>
       </c>
       <c r="F53" t="n">
-        <v>18474985.0022665</v>
+        <v>34373290.198293</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>75</v>
       </c>
       <c r="I53" t="n">
-        <v>2673.40558182192</v>
+        <v>2922.51270423833</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -1995,19 +1995,19 @@
         <v>45047</v>
       </c>
       <c r="B54" t="n">
-        <v>3870.95112000103</v>
+        <v>3581.17651407609</v>
       </c>
       <c r="C54" t="n">
-        <v>363.22264944907</v>
+        <v>344.347267923949</v>
       </c>
       <c r="D54" t="n">
-        <v>144.849016025953</v>
+        <v>138.271006598909</v>
       </c>
       <c r="E54" t="n">
-        <v>339982.156139638</v>
+        <v>287346.165444146</v>
       </c>
       <c r="F54" t="n">
-        <v>275677877.086133</v>
+        <v>157189477.045446</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -2016,7 +2016,7 @@
         <v>73</v>
       </c>
       <c r="I54" t="n">
-        <v>3797.95112000103</v>
+        <v>3508.17651407609</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
@@ -2027,19 +2027,19 @@
         <v>45078</v>
       </c>
       <c r="B55" t="n">
-        <v>1697.12693689347</v>
+        <v>2205.45817982224</v>
       </c>
       <c r="C55" t="n">
-        <v>208.132629834052</v>
+        <v>247.340274308445</v>
       </c>
       <c r="D55" t="n">
-        <v>89.7145095884927</v>
+        <v>103.820915452054</v>
       </c>
       <c r="E55" t="n">
-        <v>60963.4931887314</v>
+        <v>104490.404471581</v>
       </c>
       <c r="F55" t="n">
-        <v>2945368.12001931</v>
+        <v>9927199.22689462</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -2048,7 +2048,7 @@
         <v>110</v>
       </c>
       <c r="I55" t="n">
-        <v>1587.12693689347</v>
+        <v>2095.45817982224</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -2059,19 +2059,19 @@
         <v>45108</v>
       </c>
       <c r="B56" t="n">
-        <v>894.949881922056</v>
+        <v>1217.87578572282</v>
       </c>
       <c r="C56" t="n">
-        <v>132.495534004668</v>
+        <v>163.712911499808</v>
       </c>
       <c r="D56" t="n">
-        <v>60.5167134589044</v>
+        <v>72.5628034954212</v>
       </c>
       <c r="E56" t="n">
-        <v>19012.992146894</v>
+        <v>33563.7451560052</v>
       </c>
       <c r="F56" t="n">
-        <v>334912.704852216</v>
+        <v>939097.781100392</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -2080,7 +2080,7 @@
         <v>99</v>
       </c>
       <c r="I56" t="n">
-        <v>795.949881922056</v>
+        <v>1118.87578572282</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
@@ -2091,19 +2091,19 @@
         <v>45139</v>
       </c>
       <c r="B57" t="n">
-        <v>504.121570664804</v>
+        <v>653.072463500172</v>
       </c>
       <c r="C57" t="n">
-        <v>87.3056375387026</v>
+        <v>104.861623433049</v>
       </c>
       <c r="D57" t="n">
-        <v>41.9370900964872</v>
+        <v>49.1482634548572</v>
       </c>
       <c r="E57" t="n">
-        <v>7269.10937075911</v>
+        <v>11295.1408794616</v>
       </c>
       <c r="F57" t="n">
-        <v>71323.5002603069</v>
+        <v>143877.763834345</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -2112,7 +2112,7 @@
         <v>103</v>
       </c>
       <c r="I57" t="n">
-        <v>401.121570664804</v>
+        <v>550.072463500172</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
@@ -2123,19 +2123,19 @@
         <v>45170</v>
       </c>
       <c r="B58" t="n">
-        <v>585.894022717037</v>
+        <v>555.27209769424</v>
       </c>
       <c r="C58" t="n">
-        <v>95.9573166125924</v>
+        <v>92.2381926768782</v>
       </c>
       <c r="D58" t="n">
-        <v>45.2629451824043</v>
+        <v>43.708408636289</v>
       </c>
       <c r="E58" t="n">
-        <v>9653.4373101921</v>
+        <v>8840.7319634678</v>
       </c>
       <c r="F58" t="n">
-        <v>114444.234799202</v>
+        <v>99723.893714068</v>
       </c>
       <c r="G58" t="s">
         <v>10</v>
@@ -2144,7 +2144,7 @@
         <v>72</v>
       </c>
       <c r="I58" t="n">
-        <v>513.894022717037</v>
+        <v>483.27209769424</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
@@ -2155,19 +2155,19 @@
         <v>45200</v>
       </c>
       <c r="B59" t="n">
-        <v>560.796781044147</v>
+        <v>530.954918487676</v>
       </c>
       <c r="C59" t="n">
-        <v>92.0155489140045</v>
+        <v>88.1618412720466</v>
       </c>
       <c r="D59" t="n">
-        <v>43.429359576538</v>
+        <v>41.7710955456732</v>
       </c>
       <c r="E59" t="n">
-        <v>9198.80981398663</v>
+        <v>8462.10720382362</v>
       </c>
       <c r="F59" t="n">
-        <v>108345.837790674</v>
+        <v>95591.8978395881</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
@@ -2176,7 +2176,7 @@
         <v>110</v>
       </c>
       <c r="I59" t="n">
-        <v>450.796781044147</v>
+        <v>420.954918487676</v>
       </c>
       <c r="J59" t="s">
         <v>12</v>
@@ -2187,19 +2187,19 @@
         <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>798.528377524042</v>
+        <v>634.848764719539</v>
       </c>
       <c r="C60" t="n">
-        <v>116.561948146581</v>
+        <v>98.6225587188025</v>
       </c>
       <c r="D60" t="n">
-        <v>53.0031743618762</v>
+        <v>45.7376616474109</v>
       </c>
       <c r="E60" t="n">
-        <v>17603.7448732028</v>
+        <v>11922.3984007207</v>
       </c>
       <c r="F60" t="n">
-        <v>329903.753655522</v>
+        <v>172232.655305469</v>
       </c>
       <c r="G60" t="s">
         <v>10</v>
@@ -2208,7 +2208,7 @@
         <v>89</v>
       </c>
       <c r="I60" t="n">
-        <v>709.528377524042</v>
+        <v>545.848764719539</v>
       </c>
       <c r="J60" t="s">
         <v>12</v>
@@ -2219,19 +2219,19 @@
         <v>45261</v>
       </c>
       <c r="B61" t="n">
-        <v>1380.98186904784</v>
+        <v>868.164359318128</v>
       </c>
       <c r="C61" t="n">
-        <v>167.335504956513</v>
+        <v>120.76023670189</v>
       </c>
       <c r="D61" t="n">
-        <v>71.8693149917735</v>
+        <v>54.0924200526432</v>
       </c>
       <c r="E61" t="n">
-        <v>51432.3213922019</v>
+        <v>21775.2943533396</v>
       </c>
       <c r="F61" t="n">
-        <v>2695844.04143145</v>
+        <v>511448.434652953</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -2240,7 +2240,7 @@
         <v>74</v>
       </c>
       <c r="I61" t="n">
-        <v>1306.98186904784</v>
+        <v>794.164359318128</v>
       </c>
       <c r="J61" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Rubella.xlsx
+++ b/outcome/appendix/forecast/Rubella.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rubella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +424,19 @@
         <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>635.882807881578</v>
+        <v>662.987870332541</v>
       </c>
       <c r="C2" t="n">
-        <v>476.824664449279</v>
+        <v>488.539150407604</v>
       </c>
       <c r="D2" t="n">
-        <v>411.986997373498</v>
+        <v>418.523736511608</v>
       </c>
       <c r="E2" t="n">
-        <v>862.468066142147</v>
+        <v>917.012240113904</v>
       </c>
       <c r="F2" t="n">
-        <v>1021.16060379736</v>
+        <v>1098.16335882564</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -451,19 +448,19 @@
         <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>540.444657766179</v>
+        <v>662.973446310326</v>
       </c>
       <c r="C3" t="n">
-        <v>370.251134101507</v>
+        <v>465.612008107946</v>
       </c>
       <c r="D3" t="n">
-        <v>306.31085163776</v>
+        <v>389.760200036723</v>
       </c>
       <c r="E3" t="n">
-        <v>812.700593999181</v>
+        <v>968.60627350567</v>
       </c>
       <c r="F3" t="n">
-        <v>1022.55581302538</v>
+        <v>1197.92844225482</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -475,19 +472,19 @@
         <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>1590.76631209137</v>
+        <v>2242.64353779617</v>
       </c>
       <c r="C4" t="n">
-        <v>913.380888121969</v>
+        <v>1354.81485909037</v>
       </c>
       <c r="D4" t="n">
-        <v>696.336167193079</v>
+        <v>1057.04496852802</v>
       </c>
       <c r="E4" t="n">
-        <v>2961.10523547485</v>
+        <v>3920.05138178871</v>
       </c>
       <c r="F4" t="n">
-        <v>4251.70481859454</v>
+        <v>5409.32680395726</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -499,19 +496,19 @@
         <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>2720.17181350417</v>
+        <v>4806.95516333335</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.16310399149</v>
+        <v>2508.08154262928</v>
       </c>
       <c r="D5" t="n">
-        <v>969.195431611973</v>
+        <v>1832.44135434552</v>
       </c>
       <c r="E5" t="n">
-        <v>6090.84592434268</v>
+        <v>10120.0183684997</v>
       </c>
       <c r="F5" t="n">
-        <v>9877.88344306697</v>
+        <v>15750.335901979</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -523,19 +520,19 @@
         <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>3257.20899325869</v>
+        <v>7332.63344722751</v>
       </c>
       <c r="C6" t="n">
-        <v>1466.63235393057</v>
+        <v>3363.41738116842</v>
       </c>
       <c r="D6" t="n">
-        <v>1005.55259999502</v>
+        <v>2324.52977642061</v>
       </c>
       <c r="E6" t="n">
-        <v>8366.32890216869</v>
+        <v>18368.7585214249</v>
       </c>
       <c r="F6" t="n">
-        <v>14924.4897467244</v>
+        <v>32207.2144703805</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -547,19 +544,19 @@
         <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>2032.66581111663</v>
+        <v>5018.20169342013</v>
       </c>
       <c r="C7" t="n">
-        <v>915.57652550242</v>
+        <v>2252.78721211996</v>
       </c>
       <c r="D7" t="n">
-        <v>627.831020083435</v>
+        <v>1542.79952596755</v>
       </c>
       <c r="E7" t="n">
-        <v>5218.44650952963</v>
+        <v>12953.6205287981</v>
       </c>
       <c r="F7" t="n">
-        <v>9305.80290059133</v>
+        <v>23199.9523734032</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -571,19 +568,19 @@
         <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>1136.97465037487</v>
+        <v>2526.6501632557</v>
       </c>
       <c r="C8" t="n">
-        <v>525.351938930381</v>
+        <v>1165.76117833185</v>
       </c>
       <c r="D8" t="n">
-        <v>364.156164849893</v>
+        <v>807.589492461547</v>
       </c>
       <c r="E8" t="n">
-        <v>2817.29515457991</v>
+        <v>6276.54824034091</v>
       </c>
       <c r="F8" t="n">
-        <v>4899.84439122339</v>
+        <v>10939.563021387</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -595,19 +592,19 @@
         <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>616.533710747097</v>
+        <v>1296.91105969862</v>
       </c>
       <c r="C9" t="n">
-        <v>295.237710532274</v>
+        <v>615.550854245303</v>
       </c>
       <c r="D9" t="n">
-        <v>207.795638508517</v>
+        <v>431.537653689214</v>
       </c>
       <c r="E9" t="n">
-        <v>1454.67333760068</v>
+        <v>3097.61183310756</v>
       </c>
       <c r="F9" t="n">
-        <v>2445.17675134358</v>
+        <v>5252.31526293965</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -619,19 +616,19 @@
         <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>526.780041792822</v>
+        <v>1133.2378010651</v>
       </c>
       <c r="C10" t="n">
-        <v>247.20284081077</v>
+        <v>516.555058728314</v>
       </c>
       <c r="D10" t="n">
-        <v>172.486508505342</v>
+        <v>355.92635520922</v>
       </c>
       <c r="E10" t="n">
-        <v>1277.75695576395</v>
+        <v>2861.47558923854</v>
       </c>
       <c r="F10" t="n">
-        <v>2189.38729083195</v>
+        <v>5044.4778864415</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -643,19 +640,19 @@
         <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>505.419338183873</v>
+        <v>1330.08826831719</v>
       </c>
       <c r="C11" t="n">
-        <v>229.571101580555</v>
+        <v>558.063986647316</v>
       </c>
       <c r="D11" t="n">
-        <v>157.97999227036</v>
+        <v>371.41425298295</v>
       </c>
       <c r="E11" t="n">
-        <v>1282.4795321993</v>
+        <v>3778.01736844276</v>
       </c>
       <c r="F11" t="n">
-        <v>2268.12331810699</v>
+        <v>7250.18006847151</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -667,19 +664,19 @@
         <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>605.011138724106</v>
+        <v>1823.81321209197</v>
       </c>
       <c r="C12" t="n">
-        <v>258.008752837354</v>
+        <v>683.211821229379</v>
       </c>
       <c r="D12" t="n">
-        <v>172.913778723541</v>
+        <v>434.198823265518</v>
       </c>
       <c r="E12" t="n">
-        <v>1678.39174180032</v>
+        <v>6133.08964549072</v>
       </c>
       <c r="F12" t="n">
-        <v>3164.4790427032</v>
+        <v>13374.1332890966</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -691,19 +688,19 @@
         <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>827.27391145941</v>
+        <v>3465.69317029824</v>
       </c>
       <c r="C13" t="n">
-        <v>323.713099956165</v>
+        <v>1076.91502391225</v>
       </c>
       <c r="D13" t="n">
-        <v>209.411794637989</v>
+        <v>636.228826511465</v>
       </c>
       <c r="E13" t="n">
-        <v>2603.0828435711</v>
+        <v>15733.0081301951</v>
       </c>
       <c r="F13" t="n">
-        <v>5390.03040196759</v>
+        <v>43900.3959004362</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -715,19 +712,19 @@
         <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>666.158449063751</v>
+        <v>3057.75945993518</v>
       </c>
       <c r="C14" t="n">
-        <v>259.533490767033</v>
+        <v>909.422243424051</v>
       </c>
       <c r="D14" t="n">
-        <v>167.596502982363</v>
+        <v>528.37557988157</v>
       </c>
       <c r="E14" t="n">
-        <v>2109.85000910454</v>
+        <v>14952.3030113394</v>
       </c>
       <c r="F14" t="n">
-        <v>4390.47355198021</v>
+        <v>44533.7902971294</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -736,7 +733,7 @@
         <v>1199</v>
       </c>
       <c r="I14" t="n">
-        <v>-532.841550936249</v>
+        <v>1858.75945993518</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -747,19 +744,19 @@
         <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>563.917126350755</v>
+        <v>2951.15587067578</v>
       </c>
       <c r="C15" t="n">
-        <v>218.672492960227</v>
+        <v>825.792624128528</v>
       </c>
       <c r="D15" t="n">
-        <v>140.941789862434</v>
+        <v>468.933142172045</v>
       </c>
       <c r="E15" t="n">
-        <v>1798.63769914096</v>
+        <v>16052.2417125222</v>
       </c>
       <c r="F15" t="n">
-        <v>3762.98031780711</v>
+        <v>52658.3245617619</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -768,10 +765,10 @@
         <v>306</v>
       </c>
       <c r="I15" t="n">
-        <v>257.917126350755</v>
+        <v>2645.15587067578</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -779,19 +776,19 @@
         <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>1671.36889876513</v>
+        <v>15405.1923446227</v>
       </c>
       <c r="C16" t="n">
-        <v>512.656269997239</v>
+        <v>2627.38495271879</v>
       </c>
       <c r="D16" t="n">
-        <v>301.361523977449</v>
+        <v>1256.49164116837</v>
       </c>
       <c r="E16" t="n">
-        <v>7741.98972263533</v>
+        <v>232068.397212551</v>
       </c>
       <c r="F16" t="n">
-        <v>21952.2791955232</v>
+        <v>2439497.48068462</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -800,10 +797,10 @@
         <v>197</v>
       </c>
       <c r="I16" t="n">
-        <v>1474.36889876513</v>
+        <v>15208.1923446227</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -811,19 +808,19 @@
         <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>2864.58363326346</v>
+        <v>45827.1630548961</v>
       </c>
       <c r="C17" t="n">
-        <v>754.301549402641</v>
+        <v>5034.4640903888</v>
       </c>
       <c r="D17" t="n">
-        <v>418.885337240028</v>
+        <v>2102.69036810765</v>
       </c>
       <c r="E17" t="n">
-        <v>17350.2616142612</v>
+        <v>2363138.9576352</v>
       </c>
       <c r="F17" t="n">
-        <v>62857.7961973449</v>
+        <v>294228472.884639</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -832,10 +829,10 @@
         <v>116</v>
       </c>
       <c r="I17" t="n">
-        <v>2748.58363326346</v>
+        <v>45711.1630548961</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -843,19 +840,19 @@
         <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>3426.00859700575</v>
+        <v>83937.487781875</v>
       </c>
       <c r="C18" t="n">
-        <v>833.625329203159</v>
+        <v>6665.1909011413</v>
       </c>
       <c r="D18" t="n">
-        <v>449.899897121457</v>
+        <v>2542.10563854526</v>
       </c>
       <c r="E18" t="n">
-        <v>24054.6631155479</v>
+        <v>14993835.1134002</v>
       </c>
       <c r="F18" t="n">
-        <v>100839.250777198</v>
+        <v>5694436010382.86</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -864,10 +861,10 @@
         <v>90</v>
       </c>
       <c r="I18" t="n">
-        <v>3336.00859700575</v>
+        <v>83847.487781875</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -875,19 +872,19 @@
         <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>2123.03733049967</v>
+        <v>43787.8326065299</v>
       </c>
       <c r="C19" t="n">
-        <v>557.436610077971</v>
+        <v>4024.36294929849</v>
       </c>
       <c r="D19" t="n">
-        <v>309.236419811966</v>
+        <v>1597.36616243039</v>
       </c>
       <c r="E19" t="n">
-        <v>12926.5850667927</v>
+        <v>4263668.93959024</v>
       </c>
       <c r="F19" t="n">
-        <v>47068.4399228002</v>
+        <v>6243477240.47085</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -896,10 +893,10 @@
         <v>114</v>
       </c>
       <c r="I19" t="n">
-        <v>2009.03733049967</v>
+        <v>43673.8326065299</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -907,19 +904,19 @@
         <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>1179.44100370658</v>
+        <v>15248.7550887135</v>
       </c>
       <c r="C20" t="n">
-        <v>341.441062871546</v>
+        <v>1858.3065563316</v>
       </c>
       <c r="D20" t="n">
-        <v>196.378873864953</v>
+        <v>799.991483144539</v>
       </c>
       <c r="E20" t="n">
-        <v>6032.36011064067</v>
+        <v>566074.957912918</v>
       </c>
       <c r="F20" t="n">
-        <v>18673.1560871378</v>
+        <v>30167363.9522361</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -928,10 +925,10 @@
         <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>1083.44100370658</v>
+        <v>15152.7550887135</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -939,19 +936,19 @@
         <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>635.774125108411</v>
+        <v>5857.6105591913</v>
       </c>
       <c r="C21" t="n">
-        <v>203.136849552757</v>
+        <v>896.303644205776</v>
       </c>
       <c r="D21" t="n">
-        <v>121.292436936131</v>
+        <v>413.67376655445</v>
       </c>
       <c r="E21" t="n">
-        <v>2750.87074776701</v>
+        <v>115212.736499752</v>
       </c>
       <c r="F21" t="n">
-        <v>7356.24078113438</v>
+        <v>1810231.13113417</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -960,10 +957,10 @@
         <v>96</v>
       </c>
       <c r="I21" t="n">
-        <v>539.774125108411</v>
+        <v>5761.6105591913</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -971,19 +968,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>541.804006869229</v>
+        <v>4731.50149930657</v>
       </c>
       <c r="C22" t="n">
-        <v>174.134343924642</v>
+        <v>719.314880522842</v>
       </c>
       <c r="D22" t="n">
-        <v>104.210985754071</v>
+        <v>331.223718253402</v>
       </c>
       <c r="E22" t="n">
-        <v>2321.62082735302</v>
+        <v>94572.5249634459</v>
       </c>
       <c r="F22" t="n">
-        <v>6157.48308971733</v>
+        <v>1524950.83576144</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -992,10 +989,10 @@
         <v>102</v>
       </c>
       <c r="I22" t="n">
-        <v>439.804006869229</v>
+        <v>4629.50149930657</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1003,19 +1000,19 @@
         <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>518.897191295429</v>
+        <v>5653.30843281397</v>
       </c>
       <c r="C23" t="n">
-        <v>164.123249903965</v>
+        <v>757.292563589655</v>
       </c>
       <c r="D23" t="n">
-        <v>97.6171425040627</v>
+        <v>335.227625327641</v>
       </c>
       <c r="E23" t="n">
-        <v>2283.14804324875</v>
+        <v>158893.979925047</v>
       </c>
       <c r="F23" t="n">
-        <v>6193.29023358014</v>
+        <v>4695419.11087742</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1024,10 +1021,10 @@
         <v>157</v>
       </c>
       <c r="I23" t="n">
-        <v>361.897191295429</v>
+        <v>5496.30843281397</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1035,19 +1032,19 @@
         <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>620.764733053404</v>
+        <v>8314.84049270928</v>
       </c>
       <c r="C24" t="n">
-        <v>184.782095993059</v>
+        <v>910.13837010875</v>
       </c>
       <c r="D24" t="n">
-        <v>107.395685435001</v>
+        <v>379.337200850514</v>
       </c>
       <c r="E24" t="n">
-        <v>3025.90288660338</v>
+        <v>432828.976963552</v>
       </c>
       <c r="F24" t="n">
-        <v>8972.6804090192</v>
+        <v>55372931.8480913</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1056,10 +1053,10 @@
         <v>276</v>
       </c>
       <c r="I24" t="n">
-        <v>344.764733053404</v>
+        <v>8038.84049270928</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1067,20 +1064,18 @@
         <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>848.862507256419</v>
+        <v>19243.8534705462</v>
       </c>
       <c r="C25" t="n">
-        <v>230.505788205207</v>
+        <v>1426.68245015345</v>
       </c>
       <c r="D25" t="n">
-        <v>129.459587520291</v>
+        <v>533.846735358921</v>
       </c>
       <c r="E25" t="n">
-        <v>4862.17749992827</v>
-      </c>
-      <c r="F25" t="n">
-        <v>16704.8573507673</v>
-      </c>
+        <v>4714333.77743001</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1088,10 +1083,10 @@
         <v>104</v>
       </c>
       <c r="I25" t="n">
-        <v>744.862507256419</v>
+        <v>19139.8534705462</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1099,20 +1094,18 @@
         <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>681.866701366621</v>
+        <v>15553.5003440351</v>
       </c>
       <c r="C26" t="n">
-        <v>189.038744850488</v>
+        <v>1158.09237036405</v>
       </c>
       <c r="D26" t="n">
-        <v>106.986848188266</v>
+        <v>433.740510713393</v>
       </c>
       <c r="E26" t="n">
-        <v>3763.31822825905</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12489.0586827627</v>
-      </c>
+        <v>3729321.62952987</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +1113,10 @@
         <v>127</v>
       </c>
       <c r="I26" t="n">
-        <v>554.866701366621</v>
+        <v>15426.5003440351</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1131,20 +1124,18 @@
         <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>576.052139476482</v>
+        <v>14267.2297705197</v>
       </c>
       <c r="C27" t="n">
-        <v>161.954857942367</v>
+        <v>1017.36490078357</v>
       </c>
       <c r="D27" t="n">
-        <v>92.1361741155702</v>
+        <v>376.64711301132</v>
       </c>
       <c r="E27" t="n">
-        <v>3101.34230505045</v>
-      </c>
-      <c r="F27" t="n">
-        <v>10059.0077758896</v>
-      </c>
+        <v>4226798.7637691</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1152,10 +1143,10 @@
         <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>530.052139476482</v>
+        <v>14221.2297705197</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1163,20 +1154,16 @@
         <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>1713.29799074299</v>
+        <v>148287.801502394</v>
       </c>
       <c r="C28" t="n">
-        <v>363.123001968913</v>
+        <v>3298.78176120862</v>
       </c>
       <c r="D28" t="n">
-        <v>186.689176812305</v>
-      </c>
-      <c r="E28" t="n">
-        <v>15832.0355577756</v>
-      </c>
-      <c r="F28" t="n">
-        <v>89127.8881585677</v>
-      </c>
+        <v>936.752862376692</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1184,10 +1171,10 @@
         <v>82</v>
       </c>
       <c r="I28" t="n">
-        <v>1631.29799074299</v>
+        <v>148205.801502394</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1195,20 +1182,16 @@
         <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>2939.86077229163</v>
+        <v>833565.209164625</v>
       </c>
       <c r="C29" t="n">
-        <v>524.473438931129</v>
+        <v>6278.94782977533</v>
       </c>
       <c r="D29" t="n">
-        <v>254.401964958474</v>
-      </c>
-      <c r="E29" t="n">
-        <v>39566.4518419882</v>
-      </c>
-      <c r="F29" t="n">
-        <v>353619.948320526</v>
-      </c>
+        <v>1474.51601018624</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1216,10 +1199,10 @@
         <v>107</v>
       </c>
       <c r="I29" t="n">
-        <v>2832.86077229163</v>
+        <v>833458.209164625</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1227,20 +1210,16 @@
         <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>3513.90366466431</v>
+        <v>2307881.62613956</v>
       </c>
       <c r="C30" t="n">
-        <v>579.635329579899</v>
+        <v>8099.67278013764</v>
       </c>
       <c r="D30" t="n">
-        <v>274.046399590128</v>
-      </c>
-      <c r="E30" t="n">
-        <v>56900.3836772502</v>
-      </c>
-      <c r="F30" t="n">
-        <v>657721.001838607</v>
-      </c>
+        <v>1705.98681424809</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1248,10 +1227,10 @@
         <v>187</v>
       </c>
       <c r="I30" t="n">
-        <v>3326.90366466431</v>
+        <v>2307694.62613956</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1259,20 +1238,16 @@
         <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>2169.79959001967</v>
+        <v>662763.756686613</v>
       </c>
       <c r="C31" t="n">
-        <v>400.291377322786</v>
+        <v>4642.85543631291</v>
       </c>
       <c r="D31" t="n">
-        <v>196.337227120376</v>
-      </c>
-      <c r="E31" t="n">
-        <v>27056.2321648477</v>
-      </c>
-      <c r="F31" t="n">
-        <v>218793.710027735</v>
-      </c>
+        <v>1078.00842411801</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1255,10 @@
         <v>115</v>
       </c>
       <c r="I31" t="n">
-        <v>2054.79959001967</v>
+        <v>662648.756686613</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1291,20 +1266,16 @@
         <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>1201.28118612105</v>
+        <v>117660.698101036</v>
       </c>
       <c r="C32" t="n">
-        <v>253.702388580726</v>
+        <v>2043.97065008355</v>
       </c>
       <c r="D32" t="n">
-        <v>130.274111489634</v>
-      </c>
-      <c r="E32" t="n">
-        <v>11182.588416756</v>
-      </c>
-      <c r="F32" t="n">
-        <v>63481.3824113044</v>
-      </c>
+        <v>553.113768321949</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1312,10 +1283,10 @@
         <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>1099.28118612105</v>
+        <v>117558.698101036</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1323,20 +1294,18 @@
         <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>645.616942921816</v>
+        <v>28931.7335665723</v>
       </c>
       <c r="C33" t="n">
-        <v>155.842822900428</v>
+        <v>951.303426346528</v>
       </c>
       <c r="D33" t="n">
-        <v>83.8669599331838</v>
+        <v>292.556116237852</v>
       </c>
       <c r="E33" t="n">
-        <v>4602.95365192366</v>
-      </c>
-      <c r="F33" t="n">
-        <v>19599.4900532625</v>
-      </c>
+        <v>50262991933.1371</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1344,10 +1313,10 @@
         <v>68</v>
       </c>
       <c r="I33" t="n">
-        <v>577.616942921816</v>
+        <v>28863.7335665723</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1355,20 +1324,18 @@
         <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>549.471909594711</v>
+        <v>20922.9908364497</v>
       </c>
       <c r="C34" t="n">
-        <v>135.154487749503</v>
+        <v>745.504161793479</v>
       </c>
       <c r="D34" t="n">
-        <v>73.2252717761325</v>
+        <v>233.223430384693</v>
       </c>
       <c r="E34" t="n">
-        <v>3779.13197329791</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15514.955706784</v>
-      </c>
+        <v>4696115180.52485</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1376,10 +1343,10 @@
         <v>90</v>
       </c>
       <c r="I34" t="n">
-        <v>459.471909594711</v>
+        <v>20832.9908364497</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1387,20 +1354,18 @@
         <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>525.764908652378</v>
+        <v>25627.7762563228</v>
       </c>
       <c r="C35" t="n">
-        <v>128.230048120538</v>
+        <v>769.017855877103</v>
       </c>
       <c r="D35" t="n">
-        <v>69.2625490524996</v>
+        <v>231.753721489592</v>
       </c>
       <c r="E35" t="n">
-        <v>3675.03531059963</v>
-      </c>
-      <c r="F35" t="n">
-        <v>15336.331098296</v>
-      </c>
+        <v>3087389807363.22</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1408,10 +1373,10 @@
         <v>101</v>
       </c>
       <c r="I35" t="n">
-        <v>424.764908652378</v>
+        <v>25526.7762563228</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1419,20 +1384,16 @@
         <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>628.787676938437</v>
+        <v>41632.3315523734</v>
       </c>
       <c r="C36" t="n">
-        <v>144.101845156274</v>
+        <v>905.76305495819</v>
       </c>
       <c r="D36" t="n">
-        <v>76.1333624319908</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4960.35929399394</v>
-      </c>
-      <c r="F36" t="n">
-        <v>23471.7481410716</v>
-      </c>
+        <v>255.59727591111</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1440,10 +1401,10 @@
         <v>119</v>
       </c>
       <c r="I36" t="n">
-        <v>509.787676938437</v>
+        <v>41513.3315523734</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1451,20 +1412,16 @@
         <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>859.857634638455</v>
+        <v>129782.660002357</v>
       </c>
       <c r="C37" t="n">
-        <v>178.526209106475</v>
+        <v>1388.5904925893</v>
       </c>
       <c r="D37" t="n">
-        <v>91.1353683305057</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8294.01551668876</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49041.1658680481</v>
-      </c>
+        <v>344.534067680375</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1472,10 +1429,10 @@
         <v>158</v>
       </c>
       <c r="I37" t="n">
-        <v>701.857634638455</v>
+        <v>129624.660002357</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1483,20 +1440,16 @@
         <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>689.849419849753</v>
+        <v>91565.0570774832</v>
       </c>
       <c r="C38" t="n">
-        <v>148.375865129448</v>
+        <v>1105.80170681033</v>
       </c>
       <c r="D38" t="n">
-        <v>76.6723049764065</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6184.28367995938</v>
-      </c>
-      <c r="F38" t="n">
-        <v>33645.4116582233</v>
-      </c>
+        <v>279.951082447185</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1504,10 +1457,10 @@
         <v>70</v>
       </c>
       <c r="I38" t="n">
-        <v>619.849419849753</v>
+        <v>91495.0570774832</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1515,20 +1468,16 @@
         <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>582.207886112052</v>
+        <v>77833.746435476</v>
       </c>
       <c r="C39" t="n">
-        <v>128.405542234795</v>
+        <v>954.206435085335</v>
       </c>
       <c r="D39" t="n">
-        <v>66.9342072843299</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4959.19495301071</v>
-      </c>
-      <c r="F39" t="n">
-        <v>25494.0790051414</v>
-      </c>
+        <v>242.106188209517</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1536,10 +1485,10 @@
         <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>527.207886112052</v>
+        <v>77778.746435476</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1547,20 +1496,16 @@
         <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>1734.63380658141</v>
+        <v>2754122.5231954</v>
       </c>
       <c r="C40" t="n">
-        <v>278.105587700454</v>
+        <v>2975.1119239856</v>
       </c>
       <c r="D40" t="n">
-        <v>130.284071334276</v>
-      </c>
-      <c r="E40" t="n">
-        <v>30112.6609101111</v>
-      </c>
-      <c r="F40" t="n">
-        <v>385714.795536464</v>
-      </c>
+        <v>546.379799900043</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1568,10 +1513,10 @@
         <v>98</v>
       </c>
       <c r="I40" t="n">
-        <v>1636.63380658141</v>
+        <v>2754024.5231954</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1579,20 +1524,16 @@
         <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>2978.20570798977</v>
+        <v>85245899.5189105</v>
       </c>
       <c r="C41" t="n">
-        <v>395.505493718824</v>
+        <v>5448.69055432659</v>
       </c>
       <c r="D41" t="n">
-        <v>174.647632455512</v>
-      </c>
-      <c r="E41" t="n">
-        <v>84923.3393121188</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2537299.95833463</v>
-      </c>
+        <v>806.46854402187</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1600,10 +1541,10 @@
         <v>97</v>
       </c>
       <c r="I41" t="n">
-        <v>2881.20570798977</v>
+        <v>85245802.5189105</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1611,20 +1552,16 @@
         <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>3558.65165726407</v>
+        <v>1299885942.05096</v>
       </c>
       <c r="C42" t="n">
-        <v>436.297753990739</v>
+        <v>6804.8811972446</v>
       </c>
       <c r="D42" t="n">
-        <v>188.047232985405</v>
-      </c>
-      <c r="E42" t="n">
-        <v>127945.399336441</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6193699.68340726</v>
-      </c>
+        <v>902.118620290039</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1632,10 +1569,10 @@
         <v>155</v>
       </c>
       <c r="I42" t="n">
-        <v>3403.65165726407</v>
+        <v>1299885787.05096</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1643,20 +1580,16 @@
         <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>2193.531274596</v>
+        <v>38092506.3132423</v>
       </c>
       <c r="C43" t="n">
-        <v>308.075904318324</v>
+        <v>3883.37116484657</v>
       </c>
       <c r="D43" t="n">
-        <v>138.411216128062</v>
-      </c>
-      <c r="E43" t="n">
-        <v>53596.2195294065</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1200959.96691442</v>
-      </c>
+        <v>590.614517235353</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1664,10 +1597,10 @@
         <v>167</v>
       </c>
       <c r="I43" t="n">
-        <v>2026.531274596</v>
+        <v>38092339.3132423</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1675,20 +1608,16 @@
         <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>1212.33098840256</v>
+        <v>1401113.33100827</v>
       </c>
       <c r="C44" t="n">
-        <v>200.065664480979</v>
+        <v>1722.74036010859</v>
       </c>
       <c r="D44" t="n">
-        <v>94.6023976031009</v>
-      </c>
-      <c r="E44" t="n">
-        <v>19610.8053769811</v>
-      </c>
-      <c r="F44" t="n">
-        <v>226343.136029591</v>
-      </c>
+        <v>320.295647034452</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1696,10 +1625,10 @@
         <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>1106.33098840256</v>
+        <v>1401007.33100827</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1707,20 +1636,16 @@
         <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>650.583542799705</v>
+        <v>162973.838782655</v>
       </c>
       <c r="C45" t="n">
-        <v>125.795561620444</v>
+        <v>808.160459186603</v>
       </c>
       <c r="D45" t="n">
-        <v>62.6802378712012</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7308.74436776987</v>
-      </c>
-      <c r="F45" t="n">
-        <v>51826.5517670052</v>
-      </c>
+        <v>177.740114558916</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1728,10 +1653,10 @@
         <v>128</v>
       </c>
       <c r="I45" t="n">
-        <v>522.583542799705</v>
+        <v>162845.838782655</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1739,20 +1664,16 @@
         <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>553.336540780437</v>
+        <v>100325.867126879</v>
       </c>
       <c r="C46" t="n">
-        <v>109.97332813057</v>
+        <v>629.105490481561</v>
       </c>
       <c r="D46" t="n">
-        <v>55.3084489768145</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5856.37858882039</v>
-      </c>
-      <c r="F46" t="n">
-        <v>38624.062130998</v>
-      </c>
+        <v>143.012716779783</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1760,10 +1681,10 @@
         <v>98</v>
       </c>
       <c r="I46" t="n">
-        <v>455.336540780437</v>
+        <v>100227.867126879</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1771,20 +1692,16 @@
         <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>529.223447787828</v>
+        <v>127320.409422724</v>
       </c>
       <c r="C47" t="n">
-        <v>104.785030528032</v>
+        <v>639.509591319613</v>
       </c>
       <c r="D47" t="n">
-        <v>52.6317059333603</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5646.86295498679</v>
-      </c>
-      <c r="F47" t="n">
-        <v>37607.7853729454</v>
-      </c>
+        <v>140.749219950696</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1792,10 +1709,10 @@
         <v>118</v>
       </c>
       <c r="I47" t="n">
-        <v>411.223447787828</v>
+        <v>127202.409422724</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1803,20 +1720,16 @@
         <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>632.826872992194</v>
+        <v>239376.305175141</v>
       </c>
       <c r="C48" t="n">
-        <v>117.484330961075</v>
+        <v>738.764408364938</v>
       </c>
       <c r="D48" t="n">
-        <v>57.7456595373567</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7779.91876455593</v>
-      </c>
-      <c r="F48" t="n">
-        <v>61778.1098561543</v>
-      </c>
+        <v>152.343951768567</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1824,10 +1737,10 @@
         <v>120</v>
       </c>
       <c r="I48" t="n">
-        <v>512.826872992194</v>
+        <v>239256.305175141</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1835,20 +1748,16 @@
         <v>44896</v>
       </c>
       <c r="B49" t="n">
-        <v>865.393332234937</v>
+        <v>1210162.54909686</v>
       </c>
       <c r="C49" t="n">
-        <v>144.648481920936</v>
+        <v>1097.63154047951</v>
       </c>
       <c r="D49" t="n">
-        <v>68.6819931256763</v>
-      </c>
-      <c r="E49" t="n">
-        <v>13574.1728591673</v>
-      </c>
-      <c r="F49" t="n">
-        <v>149872.752926551</v>
-      </c>
+        <v>197.590617261379</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1856,10 +1765,10 @@
         <v>72</v>
       </c>
       <c r="I49" t="n">
-        <v>793.393332234937</v>
+        <v>1210090.54909686</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1867,20 +1776,16 @@
         <v>44927</v>
       </c>
       <c r="B50" t="n">
-        <v>693.86404887612</v>
+        <v>678568.382565166</v>
       </c>
       <c r="C50" t="n">
-        <v>121.38633044844</v>
+        <v>871.228869055481</v>
       </c>
       <c r="D50" t="n">
-        <v>58.501369019574</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9771.49716858153</v>
-      </c>
-      <c r="F50" t="n">
-        <v>92828.2013274234</v>
-      </c>
+        <v>162.327016145116</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
       <c r="G50" t="s">
         <v>10</v>
       </c>
@@ -1888,10 +1793,10 @@
         <v>40</v>
       </c>
       <c r="I50" t="n">
-        <v>653.86404887612</v>
+        <v>678528.382565166</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1899,20 +1804,16 @@
         <v>44958</v>
       </c>
       <c r="B51" t="n">
-        <v>585.300911699878</v>
+        <v>510623.671559114</v>
       </c>
       <c r="C51" t="n">
-        <v>105.825921356359</v>
+        <v>747.398298109853</v>
       </c>
       <c r="D51" t="n">
-        <v>51.560037243151</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7639.27228814279</v>
-      </c>
-      <c r="F51" t="n">
-        <v>65557.1123051005</v>
-      </c>
+        <v>141.116642509147</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
       <c r="G51" t="s">
         <v>10</v>
       </c>
@@ -1920,10 +1821,10 @@
         <v>67</v>
       </c>
       <c r="I51" t="n">
-        <v>518.300911699878</v>
+        <v>510556.671559114</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1931,20 +1832,16 @@
         <v>44986</v>
       </c>
       <c r="B52" t="n">
-        <v>1745.37097735787</v>
+        <v>302419660.632865</v>
       </c>
       <c r="C52" t="n">
-        <v>222.825555873861</v>
+        <v>2166.32085212696</v>
       </c>
       <c r="D52" t="n">
-        <v>97.2199306339915</v>
-      </c>
-      <c r="E52" t="n">
-        <v>55702.127738822</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2086642.05015758</v>
-      </c>
+        <v>289.771005473198</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
       <c r="G52" t="s">
         <v>10</v>
       </c>
@@ -1952,95 +1849,71 @@
         <v>90</v>
       </c>
       <c r="I52" t="n">
-        <v>1655.37097735787</v>
+        <v>302419570.632865</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>45017</v>
       </c>
-      <c r="B53" t="n">
-        <v>2997.51270423833</v>
-      </c>
+      <c r="B53"/>
       <c r="C53" t="n">
-        <v>312.815324440207</v>
+        <v>3759.02309674663</v>
       </c>
       <c r="D53" t="n">
-        <v>128.580848837936</v>
-      </c>
-      <c r="E53" t="n">
-        <v>180166.570708225</v>
-      </c>
-      <c r="F53" t="n">
-        <v>34373290.198293</v>
-      </c>
+        <v>404.472505281313</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
       <c r="G53" t="s">
         <v>10</v>
       </c>
       <c r="H53" t="n">
         <v>75</v>
       </c>
-      <c r="I53" t="n">
-        <v>2922.51270423833</v>
-      </c>
-      <c r="J53" t="s">
-        <v>12</v>
-      </c>
+      <c r="I53"/>
+      <c r="J53"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B54" t="n">
-        <v>3581.17651407609</v>
-      </c>
+      <c r="B54"/>
       <c r="C54" t="n">
-        <v>344.347267923949</v>
+        <v>4548.21468513739</v>
       </c>
       <c r="D54" t="n">
-        <v>138.271006598909</v>
-      </c>
-      <c r="E54" t="n">
-        <v>287346.165444146</v>
-      </c>
-      <c r="F54" t="n">
-        <v>157189477.045446</v>
-      </c>
+        <v>441.853030348754</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54" t="s">
         <v>10</v>
       </c>
       <c r="H54" t="n">
         <v>73</v>
       </c>
-      <c r="I54" t="n">
-        <v>3508.17651407609</v>
-      </c>
-      <c r="J54" t="s">
-        <v>12</v>
-      </c>
+      <c r="I54"/>
+      <c r="J54"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="B55" t="n">
-        <v>2205.45817982224</v>
+        <v>56187086641435.1</v>
       </c>
       <c r="C55" t="n">
-        <v>247.340274308445</v>
+        <v>2664.1835487964</v>
       </c>
       <c r="D55" t="n">
-        <v>103.820915452054</v>
-      </c>
-      <c r="E55" t="n">
-        <v>104490.404471581</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9927199.22689462</v>
-      </c>
+        <v>302.171928680187</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55" t="s">
         <v>10</v>
       </c>
@@ -2048,10 +1921,10 @@
         <v>110</v>
       </c>
       <c r="I55" t="n">
-        <v>2095.45817982224</v>
+        <v>56187086641325.1</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2059,20 +1932,16 @@
         <v>45108</v>
       </c>
       <c r="B56" t="n">
-        <v>1217.87578572282</v>
+        <v>42405191.4688536</v>
       </c>
       <c r="C56" t="n">
-        <v>163.712911499808</v>
+        <v>1231.94076536912</v>
       </c>
       <c r="D56" t="n">
-        <v>72.5628034954212</v>
-      </c>
-      <c r="E56" t="n">
-        <v>33563.7451560052</v>
-      </c>
-      <c r="F56" t="n">
-        <v>939097.781100392</v>
-      </c>
+        <v>174.358380501849</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" t="s">
         <v>10</v>
       </c>
@@ -2080,10 +1949,10 @@
         <v>99</v>
       </c>
       <c r="I56" t="n">
-        <v>1118.87578572282</v>
+        <v>42405092.4688536</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -2091,20 +1960,16 @@
         <v>45139</v>
       </c>
       <c r="B57" t="n">
-        <v>653.072463500172</v>
+        <v>1124838.73645144</v>
       </c>
       <c r="C57" t="n">
-        <v>104.861623433049</v>
+        <v>598.17728342074</v>
       </c>
       <c r="D57" t="n">
-        <v>49.1482634548572</v>
-      </c>
-      <c r="E57" t="n">
-        <v>11295.1408794616</v>
-      </c>
-      <c r="F57" t="n">
-        <v>143877.763834345</v>
-      </c>
+        <v>102.101802558344</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57" t="s">
         <v>10</v>
       </c>
@@ -2112,10 +1977,10 @@
         <v>103</v>
       </c>
       <c r="I57" t="n">
-        <v>550.072463500172</v>
+        <v>1124735.73645144</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -2123,20 +1988,16 @@
         <v>45170</v>
       </c>
       <c r="B58" t="n">
-        <v>555.27209769424</v>
+        <v>540894.912925112</v>
       </c>
       <c r="C58" t="n">
-        <v>92.2381926768782</v>
+        <v>467.834810721997</v>
       </c>
       <c r="D58" t="n">
-        <v>43.708408636289</v>
-      </c>
-      <c r="E58" t="n">
-        <v>8840.7319634678</v>
-      </c>
-      <c r="F58" t="n">
-        <v>99723.893714068</v>
-      </c>
+        <v>83.3668107713962</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
       <c r="G58" t="s">
         <v>10</v>
       </c>
@@ -2144,10 +2005,10 @@
         <v>72</v>
       </c>
       <c r="I58" t="n">
-        <v>483.27209769424</v>
+        <v>540822.912925112</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -2155,20 +2016,16 @@
         <v>45200</v>
       </c>
       <c r="B59" t="n">
-        <v>530.954918487676</v>
+        <v>723590.683867058</v>
       </c>
       <c r="C59" t="n">
-        <v>88.1618412720466</v>
+        <v>470.991227172798</v>
       </c>
       <c r="D59" t="n">
-        <v>41.7710955456732</v>
-      </c>
-      <c r="E59" t="n">
-        <v>8462.10720382362</v>
-      </c>
-      <c r="F59" t="n">
-        <v>95591.8978395881</v>
-      </c>
+        <v>81.6972631697045</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
       <c r="G59" t="s">
         <v>10</v>
       </c>
@@ -2176,10 +2033,10 @@
         <v>110</v>
       </c>
       <c r="I59" t="n">
-        <v>420.954918487676</v>
+        <v>723480.683867058</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -2187,20 +2044,16 @@
         <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>634.848764719539</v>
+        <v>1707427.67478812</v>
       </c>
       <c r="C60" t="n">
-        <v>98.6225587188025</v>
+        <v>534.903013150329</v>
       </c>
       <c r="D60" t="n">
-        <v>45.7376616474109</v>
-      </c>
-      <c r="E60" t="n">
-        <v>11922.3984007207</v>
-      </c>
-      <c r="F60" t="n">
-        <v>172232.655305469</v>
-      </c>
+        <v>87.2710483233755</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
       <c r="G60" t="s">
         <v>10</v>
       </c>
@@ -2208,10 +2061,10 @@
         <v>89</v>
       </c>
       <c r="I60" t="n">
-        <v>545.848764719539</v>
+        <v>1707338.67478812</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -2219,20 +2072,16 @@
         <v>45261</v>
       </c>
       <c r="B61" t="n">
-        <v>868.164359318128</v>
+        <v>21010341.4510177</v>
       </c>
       <c r="C61" t="n">
-        <v>120.76023670189</v>
+        <v>768.37661857551</v>
       </c>
       <c r="D61" t="n">
-        <v>54.0924200526432</v>
-      </c>
-      <c r="E61" t="n">
-        <v>21775.2943533396</v>
-      </c>
-      <c r="F61" t="n">
-        <v>511448.434652953</v>
-      </c>
+        <v>109.671005216844</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
       <c r="G61" t="s">
         <v>10</v>
       </c>
@@ -2240,10 +2089,10 @@
         <v>74</v>
       </c>
       <c r="I61" t="n">
-        <v>794.164359318128</v>
+        <v>21010267.4510177</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Rubella.xlsx
+++ b/outcome/appendix/forecast/Rubella.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rubella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +427,19 @@
         <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>662.987870332541</v>
+        <v>659.939725403017</v>
       </c>
       <c r="C2" t="n">
-        <v>488.539150407604</v>
+        <v>493.517603174201</v>
       </c>
       <c r="D2" t="n">
-        <v>418.523736511608</v>
+        <v>425.843353765748</v>
       </c>
       <c r="E2" t="n">
-        <v>917.012240113904</v>
+        <v>897.830606973688</v>
       </c>
       <c r="F2" t="n">
-        <v>1098.16335882564</v>
+        <v>1064.91079218875</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -448,19 +451,19 @@
         <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>662.973446310326</v>
+        <v>597.393155053101</v>
       </c>
       <c r="C3" t="n">
-        <v>465.612008107946</v>
+        <v>406.365851633694</v>
       </c>
       <c r="D3" t="n">
-        <v>389.760200036723</v>
+        <v>335.054431172651</v>
       </c>
       <c r="E3" t="n">
-        <v>968.60627350567</v>
+        <v>905.79837394259</v>
       </c>
       <c r="F3" t="n">
-        <v>1197.92844225482</v>
+        <v>1145.35409329584</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -472,19 +475,19 @@
         <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>2242.64353779617</v>
+        <v>1908.43197375534</v>
       </c>
       <c r="C4" t="n">
-        <v>1354.81485909037</v>
+        <v>1069.87361163699</v>
       </c>
       <c r="D4" t="n">
-        <v>1057.04496852802</v>
+        <v>806.910159428067</v>
       </c>
       <c r="E4" t="n">
-        <v>3920.05138178871</v>
+        <v>3661.29353118686</v>
       </c>
       <c r="F4" t="n">
-        <v>5409.32680395726</v>
+        <v>5360.17389251237</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -496,19 +499,19 @@
         <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>4806.95516333335</v>
+        <v>3666.93169097754</v>
       </c>
       <c r="C5" t="n">
-        <v>2508.08154262928</v>
+        <v>1730.13387999571</v>
       </c>
       <c r="D5" t="n">
-        <v>1832.44135434552</v>
+        <v>1210.01342957254</v>
       </c>
       <c r="E5" t="n">
-        <v>10120.0183684997</v>
+        <v>8829.20897177302</v>
       </c>
       <c r="F5" t="n">
-        <v>15750.335901979</v>
+        <v>15051.7002615845</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -520,19 +523,19 @@
         <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>7332.63344722751</v>
+        <v>4677.07664563518</v>
       </c>
       <c r="C6" t="n">
-        <v>3363.41738116842</v>
+        <v>1942.25521879887</v>
       </c>
       <c r="D6" t="n">
-        <v>2324.52977642061</v>
+        <v>1287.43838100639</v>
       </c>
       <c r="E6" t="n">
-        <v>18368.7585214249</v>
+        <v>13483.5635749985</v>
       </c>
       <c r="F6" t="n">
-        <v>32207.2144703805</v>
+        <v>26150.490335845</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -544,19 +547,19 @@
         <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>5018.20169342013</v>
+        <v>2988.42387326826</v>
       </c>
       <c r="C7" t="n">
-        <v>2252.78721211996</v>
+        <v>1223.8596740374</v>
       </c>
       <c r="D7" t="n">
-        <v>1542.79952596755</v>
+        <v>806.600900848042</v>
       </c>
       <c r="E7" t="n">
-        <v>12953.6205287981</v>
+        <v>8791.7210190262</v>
       </c>
       <c r="F7" t="n">
-        <v>23199.9523734032</v>
+        <v>17308.6502161573</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -568,19 +571,19 @@
         <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>2526.6501632557</v>
+        <v>1621.73458701638</v>
       </c>
       <c r="C8" t="n">
-        <v>1165.76117833185</v>
+        <v>679.454960126748</v>
       </c>
       <c r="D8" t="n">
-        <v>807.589492461547</v>
+        <v>452.023143096199</v>
       </c>
       <c r="E8" t="n">
-        <v>6276.54824034091</v>
+        <v>4615.35243452864</v>
       </c>
       <c r="F8" t="n">
-        <v>10939.563021387</v>
+        <v>8866.41644273036</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -592,19 +595,19 @@
         <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>1296.91105969862</v>
+        <v>852.042030625276</v>
       </c>
       <c r="C9" t="n">
-        <v>615.550854245303</v>
+        <v>369.722766739388</v>
       </c>
       <c r="D9" t="n">
-        <v>431.537653689214</v>
+        <v>249.573089972674</v>
       </c>
       <c r="E9" t="n">
-        <v>3097.61183310756</v>
+        <v>2305.66077496255</v>
       </c>
       <c r="F9" t="n">
-        <v>5252.31526293965</v>
+        <v>4269.58292383002</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -616,19 +619,19 @@
         <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>1133.2378010651</v>
+        <v>729.271714516555</v>
       </c>
       <c r="C10" t="n">
-        <v>516.555058728314</v>
+        <v>306.348084567978</v>
       </c>
       <c r="D10" t="n">
-        <v>355.92635520922</v>
+        <v>204.018144670559</v>
       </c>
       <c r="E10" t="n">
-        <v>2861.47558923854</v>
+        <v>2067.35385713725</v>
       </c>
       <c r="F10" t="n">
-        <v>5044.4778864415</v>
+        <v>3960.04668111193</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -640,19 +643,19 @@
         <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>1330.08826831719</v>
+        <v>715.666866966607</v>
       </c>
       <c r="C11" t="n">
-        <v>558.063986647316</v>
+        <v>285.93998353874</v>
       </c>
       <c r="D11" t="n">
-        <v>371.41425298295</v>
+        <v>186.540257821805</v>
       </c>
       <c r="E11" t="n">
-        <v>3778.01736844276</v>
+        <v>2182.98718195048</v>
       </c>
       <c r="F11" t="n">
-        <v>7250.18006847151</v>
+        <v>4415.34797004876</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -664,19 +667,19 @@
         <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>1823.81321209197</v>
+        <v>895.740468110774</v>
       </c>
       <c r="C12" t="n">
-        <v>683.211821229379</v>
+        <v>327.067384407113</v>
       </c>
       <c r="D12" t="n">
-        <v>434.198823265518</v>
+        <v>205.756466857693</v>
       </c>
       <c r="E12" t="n">
-        <v>6133.08964549072</v>
+        <v>3130.99725584506</v>
       </c>
       <c r="F12" t="n">
-        <v>13374.1332890966</v>
+        <v>7032.83106313238</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -688,19 +691,19 @@
         <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>3465.69317029824</v>
+        <v>1302.14897385839</v>
       </c>
       <c r="C13" t="n">
-        <v>1076.91502391225</v>
+        <v>420.684509213818</v>
       </c>
       <c r="D13" t="n">
-        <v>636.228826511465</v>
+        <v>252.249811797073</v>
       </c>
       <c r="E13" t="n">
-        <v>15733.0081301951</v>
+        <v>5532.38246053285</v>
       </c>
       <c r="F13" t="n">
-        <v>43900.3959004362</v>
+        <v>14569.5560807558</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -712,19 +715,19 @@
         <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>3057.75945993518</v>
+        <v>1055.6232680536</v>
       </c>
       <c r="C14" t="n">
-        <v>909.422243424051</v>
+        <v>335.678416918122</v>
       </c>
       <c r="D14" t="n">
-        <v>528.37557988157</v>
+        <v>200.049398572076</v>
       </c>
       <c r="E14" t="n">
-        <v>14952.3030113394</v>
+        <v>4603.55016038203</v>
       </c>
       <c r="F14" t="n">
-        <v>44533.7902971294</v>
+        <v>12394.3974307394</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>1199</v>
       </c>
       <c r="I14" t="n">
-        <v>1858.75945993518</v>
+        <v>-143.376731946399</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -744,19 +747,19 @@
         <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>2951.15587067578</v>
+        <v>920.952494896828</v>
       </c>
       <c r="C15" t="n">
-        <v>825.792624128528</v>
+        <v>286.633958432577</v>
       </c>
       <c r="D15" t="n">
-        <v>468.933142172045</v>
+        <v>169.417905347739</v>
       </c>
       <c r="E15" t="n">
-        <v>16052.2417125222</v>
+        <v>4162.31198537178</v>
       </c>
       <c r="F15" t="n">
-        <v>52658.3245617619</v>
+        <v>11554.603434491</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -765,10 +768,10 @@
         <v>306</v>
       </c>
       <c r="I15" t="n">
-        <v>2645.15587067578</v>
+        <v>614.952494896828</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -776,19 +779,19 @@
         <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>15405.1923446227</v>
+        <v>3191.91643961719</v>
       </c>
       <c r="C16" t="n">
-        <v>2627.38495271879</v>
+        <v>712.808797884482</v>
       </c>
       <c r="D16" t="n">
-        <v>1256.49164116837</v>
+        <v>373.182124248507</v>
       </c>
       <c r="E16" t="n">
-        <v>232068.397212551</v>
+        <v>26521.9211642702</v>
       </c>
       <c r="F16" t="n">
-        <v>2439497.48068462</v>
+        <v>132746.810872649</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -797,10 +800,10 @@
         <v>197</v>
       </c>
       <c r="I16" t="n">
-        <v>15208.1923446227</v>
+        <v>2994.91643961719</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -808,19 +811,19 @@
         <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>45827.1630548961</v>
+        <v>6367.42055131906</v>
       </c>
       <c r="C17" t="n">
-        <v>5034.4640903888</v>
+        <v>1115.52487789199</v>
       </c>
       <c r="D17" t="n">
-        <v>2102.69036810765</v>
+        <v>537.88121943415</v>
       </c>
       <c r="E17" t="n">
-        <v>2363138.9576352</v>
+        <v>89429.6918853617</v>
       </c>
       <c r="F17" t="n">
-        <v>294228472.884639</v>
+        <v>847093.020160405</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -829,10 +832,10 @@
         <v>116</v>
       </c>
       <c r="I17" t="n">
-        <v>45711.1630548961</v>
+        <v>6251.42055131906</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -840,19 +843,19 @@
         <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>83937.487781875</v>
+        <v>8064.37996613716</v>
       </c>
       <c r="C18" t="n">
-        <v>6665.1909011413</v>
+        <v>1241.51681601083</v>
       </c>
       <c r="D18" t="n">
-        <v>2542.10563854526</v>
+        <v>574.132728264788</v>
       </c>
       <c r="E18" t="n">
-        <v>14993835.1134002</v>
+        <v>155078.456620005</v>
       </c>
       <c r="F18" t="n">
-        <v>5694436010382.86</v>
+        <v>2327585.9595838</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -861,10 +864,10 @@
         <v>90</v>
       </c>
       <c r="I18" t="n">
-        <v>83847.487781875</v>
+        <v>7974.37996613716</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -872,19 +875,19 @@
         <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>43787.8326065299</v>
+        <v>4769.85478576618</v>
       </c>
       <c r="C19" t="n">
-        <v>4024.36294929849</v>
+        <v>810.342479495373</v>
       </c>
       <c r="D19" t="n">
-        <v>1597.36616243039</v>
+        <v>386.804689785439</v>
       </c>
       <c r="E19" t="n">
-        <v>4263668.93959024</v>
+        <v>72012.8346155937</v>
       </c>
       <c r="F19" t="n">
-        <v>6243477240.47085</v>
+        <v>753783.916599219</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -893,10 +896,10 @@
         <v>114</v>
       </c>
       <c r="I19" t="n">
-        <v>43673.8326065299</v>
+        <v>4655.85478576618</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -904,19 +907,19 @@
         <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>15248.7550887135</v>
+        <v>2392.38928033073</v>
       </c>
       <c r="C20" t="n">
-        <v>1858.3065563316</v>
+        <v>468.352570107851</v>
       </c>
       <c r="D20" t="n">
-        <v>799.991483144539</v>
+        <v>234.326664450311</v>
       </c>
       <c r="E20" t="n">
-        <v>566074.957912918</v>
+        <v>26168.6221508859</v>
       </c>
       <c r="F20" t="n">
-        <v>30167363.9522361</v>
+        <v>179690.30227459</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -925,10 +928,10 @@
         <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>15152.7550887135</v>
+        <v>2296.38928033073</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -936,19 +939,19 @@
         <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>5857.6105591913</v>
+        <v>1175.29898604841</v>
       </c>
       <c r="C21" t="n">
-        <v>896.303644205776</v>
+        <v>264.494359488095</v>
       </c>
       <c r="D21" t="n">
-        <v>413.67376655445</v>
+        <v>138.826162339368</v>
       </c>
       <c r="E21" t="n">
-        <v>115212.736499752</v>
+        <v>9612.91094790134</v>
       </c>
       <c r="F21" t="n">
-        <v>1810231.13113417</v>
+        <v>47297.5353347501</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -957,10 +960,10 @@
         <v>96</v>
       </c>
       <c r="I21" t="n">
-        <v>5761.6105591913</v>
+        <v>1079.29898604841</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -968,19 +971,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>4731.50149930657</v>
+        <v>977.96438175212</v>
       </c>
       <c r="C22" t="n">
-        <v>719.314880522842</v>
+        <v>221.064207189178</v>
       </c>
       <c r="D22" t="n">
-        <v>331.223718253402</v>
+        <v>116.206293355782</v>
       </c>
       <c r="E22" t="n">
-        <v>94572.5249634459</v>
+        <v>7927.52367832054</v>
       </c>
       <c r="F22" t="n">
-        <v>1524950.83576144</v>
+        <v>38629.6232620944</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -989,10 +992,10 @@
         <v>102</v>
       </c>
       <c r="I22" t="n">
-        <v>4629.50149930657</v>
+        <v>875.96438175212</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1000,19 +1003,19 @@
         <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>5653.30843281397</v>
+        <v>942.288082274543</v>
       </c>
       <c r="C23" t="n">
-        <v>757.292563589655</v>
+        <v>206.599746073785</v>
       </c>
       <c r="D23" t="n">
-        <v>335.227625327641</v>
+        <v>107.447329918993</v>
       </c>
       <c r="E23" t="n">
-        <v>158893.979925047</v>
+        <v>8121.49754264189</v>
       </c>
       <c r="F23" t="n">
-        <v>4695419.11087742</v>
+        <v>42308.6464965538</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1021,10 +1024,10 @@
         <v>157</v>
       </c>
       <c r="I23" t="n">
-        <v>5496.30843281397</v>
+        <v>785.288082274543</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1032,19 +1035,19 @@
         <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>8314.84049270928</v>
+        <v>1174.15245488365</v>
       </c>
       <c r="C24" t="n">
-        <v>910.13837010875</v>
+        <v>233.694395708552</v>
       </c>
       <c r="D24" t="n">
-        <v>379.337200850514</v>
+        <v>117.561680305403</v>
       </c>
       <c r="E24" t="n">
-        <v>432828.976963552</v>
+        <v>12388.0652550441</v>
       </c>
       <c r="F24" t="n">
-        <v>55372931.8480913</v>
+        <v>81431.5453852003</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1053,10 +1056,10 @@
         <v>276</v>
       </c>
       <c r="I24" t="n">
-        <v>8038.84049270928</v>
+        <v>898.152454883649</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1064,18 +1067,20 @@
         <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>19243.8534705462</v>
+        <v>1713.09842507729</v>
       </c>
       <c r="C25" t="n">
-        <v>1426.68245015345</v>
+        <v>294.919415371848</v>
       </c>
       <c r="D25" t="n">
-        <v>533.846735358921</v>
+        <v>141.361543645523</v>
       </c>
       <c r="E25" t="n">
-        <v>4714333.77743001</v>
-      </c>
-      <c r="F25"/>
+        <v>25055.1841417075</v>
+      </c>
+      <c r="F25" t="n">
+        <v>250884.416210101</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1083,10 +1088,10 @@
         <v>104</v>
       </c>
       <c r="I25" t="n">
-        <v>19139.8534705462</v>
+        <v>1609.09842507729</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1094,18 +1099,20 @@
         <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>15553.5003440351</v>
+        <v>1352.27322069185</v>
       </c>
       <c r="C26" t="n">
-        <v>1158.09237036405</v>
+        <v>238.485225346538</v>
       </c>
       <c r="D26" t="n">
-        <v>433.740510713393</v>
+        <v>115.213207372244</v>
       </c>
       <c r="E26" t="n">
-        <v>3729321.62952987</v>
-      </c>
-      <c r="F26"/>
+        <v>18691.1161619028</v>
+      </c>
+      <c r="F26" t="n">
+        <v>173237.717589858</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1113,10 +1120,10 @@
         <v>127</v>
       </c>
       <c r="I26" t="n">
-        <v>15426.5003440351</v>
+        <v>1225.27322069185</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1124,18 +1131,20 @@
         <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>14267.2297705197</v>
+        <v>1155.55186179308</v>
       </c>
       <c r="C27" t="n">
-        <v>1017.36490078357</v>
+        <v>205.172265294033</v>
       </c>
       <c r="D27" t="n">
-        <v>376.64711301132</v>
+        <v>99.3351578611444</v>
       </c>
       <c r="E27" t="n">
-        <v>4226798.7637691</v>
-      </c>
-      <c r="F27"/>
+        <v>15722.5923642534</v>
+      </c>
+      <c r="F27" t="n">
+        <v>142669.232054391</v>
+      </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1143,10 +1152,10 @@
         <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>14221.2297705197</v>
+        <v>1109.55186179308</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1154,16 +1163,20 @@
         <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>148287.801502394</v>
+        <v>4193.97437266149</v>
       </c>
       <c r="C28" t="n">
-        <v>3298.78176120862</v>
+        <v>478.462519667454</v>
       </c>
       <c r="D28" t="n">
-        <v>936.752862376692</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>201.82607611443</v>
+      </c>
+      <c r="E28" t="n">
+        <v>188386.306309778</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15602770.3400201</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1171,10 +1184,10 @@
         <v>82</v>
       </c>
       <c r="I28" t="n">
-        <v>148205.801502394</v>
+        <v>4111.97437266149</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1182,16 +1195,20 @@
         <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>833565.209164625</v>
+        <v>8549.02188790493</v>
       </c>
       <c r="C29" t="n">
-        <v>6278.94782977533</v>
+        <v>721.644190443792</v>
       </c>
       <c r="D29" t="n">
-        <v>1474.51601018624</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>279.452512245132</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1140955.22231148</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11546177414.3009</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1199,10 +1216,10 @@
         <v>107</v>
       </c>
       <c r="I29" t="n">
-        <v>833458.209164625</v>
+        <v>8442.02188790493</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1210,16 +1227,20 @@
         <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>2307881.62613956</v>
+        <v>10783.2957840439</v>
       </c>
       <c r="C30" t="n">
-        <v>8099.67278013764</v>
+        <v>794.483842791879</v>
       </c>
       <c r="D30" t="n">
-        <v>1705.98681424809</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>296.600617754888</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2634303.82828918</v>
+      </c>
+      <c r="F30" t="n">
+        <v>205434944590355407844640</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1227,10 +1248,10 @@
         <v>187</v>
       </c>
       <c r="I30" t="n">
-        <v>2307694.62613956</v>
+        <v>10596.2957840439</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1238,16 +1259,20 @@
         <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>662763.756686613</v>
+        <v>6102.8500692063</v>
       </c>
       <c r="C31" t="n">
-        <v>4642.85543631291</v>
+        <v>535.52485868769</v>
       </c>
       <c r="D31" t="n">
-        <v>1078.00842411801</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>209.589554578881</v>
+      </c>
+      <c r="E31" t="n">
+        <v>695663.493369233</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2294204690.08226</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1255,10 +1280,10 @@
         <v>115</v>
       </c>
       <c r="I31" t="n">
-        <v>662648.756686613</v>
+        <v>5987.8500692063</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1266,16 +1291,20 @@
         <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>117660.698101036</v>
+        <v>2929.3674277421</v>
       </c>
       <c r="C32" t="n">
-        <v>2043.97065008355</v>
+        <v>321.759931968876</v>
       </c>
       <c r="D32" t="n">
-        <v>553.113768321949</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>134.207506819009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>148597.742249953</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17088993.2833805</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1283,10 +1312,10 @@
         <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>117558.698101036</v>
+        <v>2827.3674277421</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1294,18 +1323,20 @@
         <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>28931.7335665723</v>
+        <v>1387.30322739495</v>
       </c>
       <c r="C33" t="n">
-        <v>951.303426346528</v>
+        <v>188.548145728121</v>
       </c>
       <c r="D33" t="n">
-        <v>292.556116237852</v>
+        <v>83.8191172302254</v>
       </c>
       <c r="E33" t="n">
-        <v>50262991933.1371</v>
-      </c>
-      <c r="F33"/>
+        <v>37085.5175739272</v>
+      </c>
+      <c r="F33" t="n">
+        <v>981002.070601068</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1313,10 +1344,10 @@
         <v>68</v>
       </c>
       <c r="I33" t="n">
-        <v>28863.7335665723</v>
+        <v>1319.30322739495</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1324,18 +1355,20 @@
         <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>20922.9908364497</v>
+        <v>1136.97836381182</v>
       </c>
       <c r="C34" t="n">
-        <v>745.504161793479</v>
+        <v>159.244875688803</v>
       </c>
       <c r="D34" t="n">
-        <v>233.223430384693</v>
+        <v>71.448068438745</v>
       </c>
       <c r="E34" t="n">
-        <v>4696115180.52485</v>
-      </c>
-      <c r="F34"/>
+        <v>27984.0265091975</v>
+      </c>
+      <c r="F34" t="n">
+        <v>636128.268797837</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1343,10 +1376,10 @@
         <v>90</v>
       </c>
       <c r="I34" t="n">
-        <v>20832.9908364497</v>
+        <v>1046.97836381182</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1354,18 +1387,20 @@
         <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>25627.7762563228</v>
+        <v>1084.82233195707</v>
       </c>
       <c r="C35" t="n">
-        <v>769.017855877103</v>
+        <v>149.369947409536</v>
       </c>
       <c r="D35" t="n">
-        <v>231.753721489592</v>
+        <v>66.6610645839251</v>
       </c>
       <c r="E35" t="n">
-        <v>3087389807363.22</v>
-      </c>
-      <c r="F35"/>
+        <v>27968.8123740503</v>
+      </c>
+      <c r="F35" t="n">
+        <v>691705.434154439</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1373,10 +1408,10 @@
         <v>101</v>
       </c>
       <c r="I35" t="n">
-        <v>25526.7762563228</v>
+        <v>983.82233195707</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1384,16 +1419,20 @@
         <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>41632.3315523734</v>
+        <v>1348.56405746509</v>
       </c>
       <c r="C36" t="n">
-        <v>905.76305495819</v>
+        <v>167.645231481428</v>
       </c>
       <c r="D36" t="n">
-        <v>255.59727591111</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>72.5214874878539</v>
+      </c>
+      <c r="E36" t="n">
+        <v>46526.7086934644</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2060952.75467891</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1401,10 +1440,10 @@
         <v>119</v>
       </c>
       <c r="I36" t="n">
-        <v>41513.3315523734</v>
+        <v>1229.56405746509</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1412,16 +1451,20 @@
         <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>129782.660002357</v>
+        <v>1971.38246256474</v>
       </c>
       <c r="C37" t="n">
-        <v>1388.5904925893</v>
+        <v>208.45720698834</v>
       </c>
       <c r="D37" t="n">
-        <v>344.534067680375</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>85.9750295351587</v>
+      </c>
+      <c r="E37" t="n">
+        <v>113388.483510994</v>
+      </c>
+      <c r="F37" t="n">
+        <v>18906088.2282365</v>
+      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1429,10 +1472,10 @@
         <v>158</v>
       </c>
       <c r="I37" t="n">
-        <v>129624.660002357</v>
+        <v>1813.38246256474</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1440,16 +1483,20 @@
         <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>91565.0570774832</v>
+        <v>1534.31404387305</v>
       </c>
       <c r="C38" t="n">
-        <v>1105.80170681033</v>
+        <v>170.97073198347</v>
       </c>
       <c r="D38" t="n">
-        <v>279.951082447185</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>71.5916849391776</v>
+      </c>
+      <c r="E38" t="n">
+        <v>74223.1492740556</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7483192.37402724</v>
+      </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1457,10 +1504,10 @@
         <v>70</v>
       </c>
       <c r="I38" t="n">
-        <v>91495.0570774832</v>
+        <v>1464.31404387305</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1468,16 +1515,20 @@
         <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>77833.746435476</v>
+        <v>1296.86283657717</v>
       </c>
       <c r="C39" t="n">
-        <v>954.206435085335</v>
+        <v>148.476712607539</v>
       </c>
       <c r="D39" t="n">
-        <v>242.106188209517</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>62.6642149086857</v>
+      </c>
+      <c r="E39" t="n">
+        <v>57530.8246571935</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4613730.80149606</v>
+      </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1485,10 +1536,10 @@
         <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>77778.746435476</v>
+        <v>1241.86283657717</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1496,15 +1547,17 @@
         <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>2754122.5231954</v>
+        <v>4823.06696294779</v>
       </c>
       <c r="C40" t="n">
-        <v>2975.1119239856</v>
+        <v>327.786373134834</v>
       </c>
       <c r="D40" t="n">
-        <v>546.379799900043</v>
-      </c>
-      <c r="E40"/>
+        <v>119.77521712905</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1763227.53882592</v>
+      </c>
       <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
@@ -1513,10 +1566,10 @@
         <v>98</v>
       </c>
       <c r="I40" t="n">
-        <v>2754024.5231954</v>
+        <v>4725.06696294779</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1524,15 +1577,17 @@
         <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>85245899.5189105</v>
+        <v>9945.47572069758</v>
       </c>
       <c r="C41" t="n">
-        <v>5448.69055432659</v>
+        <v>480.079283840051</v>
       </c>
       <c r="D41" t="n">
-        <v>806.46854402187</v>
-      </c>
-      <c r="E41"/>
+        <v>161.107359725056</v>
+      </c>
+      <c r="E41" t="n">
+        <v>36103781.0133681</v>
+      </c>
       <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
@@ -1541,10 +1596,10 @@
         <v>97</v>
       </c>
       <c r="I41" t="n">
-        <v>85245802.5189105</v>
+        <v>9848.47572069758</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1552,15 +1607,17 @@
         <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>1299885942.05096</v>
+        <v>12517.3152158464</v>
       </c>
       <c r="C42" t="n">
-        <v>6804.8811972446</v>
+        <v>525.083027432637</v>
       </c>
       <c r="D42" t="n">
-        <v>902.118620290039</v>
-      </c>
-      <c r="E42"/>
+        <v>170.491876407447</v>
+      </c>
+      <c r="E42" t="n">
+        <v>187748890.56338</v>
+      </c>
       <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
@@ -1569,10 +1626,10 @@
         <v>155</v>
       </c>
       <c r="I42" t="n">
-        <v>1299885787.05096</v>
+        <v>12362.3152158464</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1580,15 +1637,17 @@
         <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>38092506.3132423</v>
+        <v>6919.96986272616</v>
       </c>
       <c r="C43" t="n">
-        <v>3883.37116484657</v>
+        <v>364.737730725625</v>
       </c>
       <c r="D43" t="n">
-        <v>590.614517235353</v>
-      </c>
-      <c r="E43"/>
+        <v>125.015913733505</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12350692.5813782</v>
+      </c>
       <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
@@ -1597,10 +1656,10 @@
         <v>167</v>
       </c>
       <c r="I43" t="n">
-        <v>38092339.3132423</v>
+        <v>6752.96986272616</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1608,15 +1667,17 @@
         <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>1401113.33100827</v>
+        <v>3245.81634398449</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.74036010859</v>
+        <v>227.08860276052</v>
       </c>
       <c r="D44" t="n">
-        <v>320.295647034452</v>
-      </c>
-      <c r="E44"/>
+        <v>83.5931450547331</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1021142.87029199</v>
+      </c>
       <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
@@ -1625,10 +1686,10 @@
         <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>1401007.33100827</v>
+        <v>3139.81634398449</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1636,16 +1697,20 @@
         <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>162973.838782655</v>
+        <v>1508.20740730514</v>
       </c>
       <c r="C45" t="n">
-        <v>808.160459186603</v>
+        <v>137.66550038069</v>
       </c>
       <c r="D45" t="n">
-        <v>177.740114558916</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>54.4341215104793</v>
+      </c>
+      <c r="E45" t="n">
+        <v>147083.760626515</v>
+      </c>
+      <c r="F45" t="n">
+        <v>199664397.212163</v>
+      </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1653,10 +1718,10 @@
         <v>128</v>
       </c>
       <c r="I45" t="n">
-        <v>162845.838782655</v>
+        <v>1380.20740730514</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1664,16 +1729,20 @@
         <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>100325.867126879</v>
+        <v>1226.43969624027</v>
       </c>
       <c r="C46" t="n">
-        <v>629.105490481561</v>
+        <v>117.523939587253</v>
       </c>
       <c r="D46" t="n">
-        <v>143.012716779783</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
+        <v>47.1024413438804</v>
+      </c>
+      <c r="E46" t="n">
+        <v>99614.3296400476</v>
+      </c>
+      <c r="F46" t="n">
+        <v>57717059.8683907</v>
+      </c>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1681,10 +1750,10 @@
         <v>98</v>
       </c>
       <c r="I46" t="n">
-        <v>100227.867126879</v>
+        <v>1128.43969624027</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1692,16 +1761,20 @@
         <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>127320.409422724</v>
+        <v>1164.31315065776</v>
       </c>
       <c r="C47" t="n">
-        <v>639.509591319613</v>
+        <v>110.749499326363</v>
       </c>
       <c r="D47" t="n">
-        <v>140.749219950696</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>44.2918376604631</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97159.7046726248</v>
+      </c>
+      <c r="F47" t="n">
+        <v>63191847.7340688</v>
+      </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1709,10 +1782,10 @@
         <v>118</v>
       </c>
       <c r="I47" t="n">
-        <v>127202.409422724</v>
+        <v>1046.31315065776</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1720,16 +1793,20 @@
         <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>239376.305175141</v>
+        <v>1445.62751645932</v>
       </c>
       <c r="C48" t="n">
-        <v>738.764408364938</v>
+        <v>123.633104357696</v>
       </c>
       <c r="D48" t="n">
-        <v>152.343951768567</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>48.0053883226924</v>
+      </c>
+      <c r="E48" t="n">
+        <v>182395.98738176</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1198166852.68623</v>
+      </c>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1737,10 +1814,10 @@
         <v>120</v>
       </c>
       <c r="I48" t="n">
-        <v>239256.305175141</v>
+        <v>1325.62751645932</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1748,15 +1825,17 @@
         <v>44896</v>
       </c>
       <c r="B49" t="n">
-        <v>1210162.54909686</v>
+        <v>2115.37209372216</v>
       </c>
       <c r="C49" t="n">
-        <v>1097.63154047951</v>
+        <v>151.990867966861</v>
       </c>
       <c r="D49" t="n">
-        <v>197.590617261379</v>
-      </c>
-      <c r="E49"/>
+        <v>56.3236305361903</v>
+      </c>
+      <c r="E49" t="n">
+        <v>582206.321114204</v>
+      </c>
       <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
@@ -1765,10 +1844,10 @@
         <v>72</v>
       </c>
       <c r="I49" t="n">
-        <v>1210090.54909686</v>
+        <v>2043.37209372216</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1776,16 +1855,20 @@
         <v>44927</v>
       </c>
       <c r="B50" t="n">
-        <v>678568.382565166</v>
+        <v>1634.52553261452</v>
       </c>
       <c r="C50" t="n">
-        <v>871.228869055481</v>
+        <v>126.30308169795</v>
       </c>
       <c r="D50" t="n">
-        <v>162.327016145116</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50"/>
+        <v>47.7097222751238</v>
+      </c>
+      <c r="E50" t="n">
+        <v>319044.646105487</v>
+      </c>
+      <c r="F50" t="n">
+        <v>443456585041.848</v>
+      </c>
       <c r="G50" t="s">
         <v>10</v>
       </c>
@@ -1793,10 +1876,10 @@
         <v>40</v>
       </c>
       <c r="I50" t="n">
-        <v>678528.382565166</v>
+        <v>1594.52553261452</v>
       </c>
       <c r="J50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1804,16 +1887,20 @@
         <v>44958</v>
       </c>
       <c r="B51" t="n">
-        <v>510623.671559114</v>
+        <v>1373.89758875589</v>
       </c>
       <c r="C51" t="n">
-        <v>747.398298109853</v>
+        <v>110.692643486834</v>
       </c>
       <c r="D51" t="n">
-        <v>141.116642509147</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51"/>
+        <v>42.2804423203702</v>
+      </c>
+      <c r="E51" t="n">
+        <v>222744.783433454</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15212949831.2656</v>
+      </c>
       <c r="G51" t="s">
         <v>10</v>
       </c>
@@ -1821,10 +1908,10 @@
         <v>67</v>
       </c>
       <c r="I51" t="n">
-        <v>510556.671559114</v>
+        <v>1306.89758875589</v>
       </c>
       <c r="J51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1832,15 +1919,17 @@
         <v>44986</v>
       </c>
       <c r="B52" t="n">
-        <v>302419660.632865</v>
+        <v>5173.56847051822</v>
       </c>
       <c r="C52" t="n">
-        <v>2166.32085212696</v>
+        <v>233.56746352759</v>
       </c>
       <c r="D52" t="n">
-        <v>289.771005473198</v>
-      </c>
-      <c r="E52"/>
+        <v>77.1163197404878</v>
+      </c>
+      <c r="E52" t="n">
+        <v>34959661.2447773</v>
+      </c>
       <c r="F52"/>
       <c r="G52" t="s">
         <v>10</v>
@@ -1849,24 +1938,28 @@
         <v>90</v>
       </c>
       <c r="I52" t="n">
-        <v>302419570.632865</v>
+        <v>5083.56847051822</v>
       </c>
       <c r="J52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>45017</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="n">
+        <v>10731.5830194569</v>
+      </c>
       <c r="C53" t="n">
-        <v>3759.02309674663</v>
+        <v>334.218237115579</v>
       </c>
       <c r="D53" t="n">
-        <v>404.472505281313</v>
-      </c>
-      <c r="E53"/>
+        <v>101.512124519971</v>
+      </c>
+      <c r="E53" t="n">
+        <v>77652803229.4806</v>
+      </c>
       <c r="F53"/>
       <c r="G53" t="s">
         <v>10</v>
@@ -1874,19 +1967,25 @@
       <c r="H53" t="n">
         <v>75</v>
       </c>
-      <c r="I53"/>
-      <c r="J53"/>
+      <c r="I53" t="n">
+        <v>10656.5830194569</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="n">
+        <v>13491.5431593166</v>
+      </c>
       <c r="C54" t="n">
-        <v>4548.21468513739</v>
+        <v>363.970489232078</v>
       </c>
       <c r="D54" t="n">
-        <v>441.853030348754</v>
+        <v>107.238224926078</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -1896,23 +1995,29 @@
       <c r="H54" t="n">
         <v>73</v>
       </c>
-      <c r="I54"/>
-      <c r="J54"/>
+      <c r="I54" t="n">
+        <v>13418.5431593166</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="B55" t="n">
-        <v>56187086641435.1</v>
+        <v>7369.53075171035</v>
       </c>
       <c r="C55" t="n">
-        <v>2664.1835487964</v>
+        <v>259.411433941317</v>
       </c>
       <c r="D55" t="n">
-        <v>302.171928680187</v>
-      </c>
-      <c r="E55"/>
+        <v>80.9169907901606</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1629546416.90632</v>
+      </c>
       <c r="F55"/>
       <c r="G55" t="s">
         <v>10</v>
@@ -1921,10 +2026,10 @@
         <v>110</v>
       </c>
       <c r="I55" t="n">
-        <v>56187086641325.1</v>
+        <v>7259.53075171035</v>
       </c>
       <c r="J55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1932,15 +2037,17 @@
         <v>45108</v>
       </c>
       <c r="B56" t="n">
-        <v>42405191.4688536</v>
+        <v>3416.36892921816</v>
       </c>
       <c r="C56" t="n">
-        <v>1231.94076536912</v>
+        <v>166.497110127398</v>
       </c>
       <c r="D56" t="n">
-        <v>174.358380501849</v>
-      </c>
-      <c r="E56"/>
+        <v>55.9637164503784</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11381627.6690953</v>
+      </c>
       <c r="F56"/>
       <c r="G56" t="s">
         <v>10</v>
@@ -1949,10 +2056,10 @@
         <v>99</v>
       </c>
       <c r="I56" t="n">
-        <v>42405092.4688536</v>
+        <v>3317.36892921816</v>
       </c>
       <c r="J56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1960,15 +2067,17 @@
         <v>45139</v>
       </c>
       <c r="B57" t="n">
-        <v>1124838.73645144</v>
+        <v>1572.27299551998</v>
       </c>
       <c r="C57" t="n">
-        <v>598.17728342074</v>
+        <v>103.920696176389</v>
       </c>
       <c r="D57" t="n">
-        <v>102.101802558344</v>
-      </c>
-      <c r="E57"/>
+        <v>37.6629616616685</v>
+      </c>
+      <c r="E57" t="n">
+        <v>664627.076456438</v>
+      </c>
       <c r="F57"/>
       <c r="G57" t="s">
         <v>10</v>
@@ -1977,10 +2086,10 @@
         <v>103</v>
       </c>
       <c r="I57" t="n">
-        <v>1124735.73645144</v>
+        <v>1469.27299551998</v>
       </c>
       <c r="J57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1988,15 +2097,17 @@
         <v>45170</v>
       </c>
       <c r="B58" t="n">
-        <v>540894.912925112</v>
+        <v>1273.51467729859</v>
       </c>
       <c r="C58" t="n">
-        <v>467.834810721997</v>
+        <v>89.5755082702292</v>
       </c>
       <c r="D58" t="n">
-        <v>83.3668107713962</v>
-      </c>
-      <c r="E58"/>
+        <v>32.9867301703585</v>
+      </c>
+      <c r="E58" t="n">
+        <v>388805.341567612</v>
+      </c>
       <c r="F58"/>
       <c r="G58" t="s">
         <v>10</v>
@@ -2005,10 +2116,10 @@
         <v>72</v>
       </c>
       <c r="I58" t="n">
-        <v>540822.912925112</v>
+        <v>1201.51467729859</v>
       </c>
       <c r="J58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -2016,15 +2127,17 @@
         <v>45200</v>
       </c>
       <c r="B59" t="n">
-        <v>723590.683867058</v>
+        <v>1205.9545611998</v>
       </c>
       <c r="C59" t="n">
-        <v>470.991227172798</v>
+        <v>84.7885097546343</v>
       </c>
       <c r="D59" t="n">
-        <v>81.6972631697045</v>
-      </c>
-      <c r="E59"/>
+        <v>31.2176120883704</v>
+      </c>
+      <c r="E59" t="n">
+        <v>368837.469666359</v>
+      </c>
       <c r="F59"/>
       <c r="G59" t="s">
         <v>10</v>
@@ -2033,10 +2146,10 @@
         <v>110</v>
       </c>
       <c r="I59" t="n">
-        <v>723480.683867058</v>
+        <v>1095.9545611998</v>
       </c>
       <c r="J59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -2044,15 +2157,17 @@
         <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>1707427.67478812</v>
+        <v>1496.41953042399</v>
       </c>
       <c r="C60" t="n">
-        <v>534.903013150329</v>
+        <v>94.2694947904666</v>
       </c>
       <c r="D60" t="n">
-        <v>87.2710483233755</v>
-      </c>
-      <c r="E60"/>
+        <v>33.7408846961108</v>
+      </c>
+      <c r="E60" t="n">
+        <v>826806.865827853</v>
+      </c>
       <c r="F60"/>
       <c r="G60" t="s">
         <v>10</v>
@@ -2061,10 +2176,10 @@
         <v>89</v>
       </c>
       <c r="I60" t="n">
-        <v>1707338.67478812</v>
+        <v>1407.41953042399</v>
       </c>
       <c r="J60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -2072,15 +2187,17 @@
         <v>45261</v>
       </c>
       <c r="B61" t="n">
-        <v>21010341.4510177</v>
+        <v>2190.78675891513</v>
       </c>
       <c r="C61" t="n">
-        <v>768.37661857551</v>
+        <v>114.842405159842</v>
       </c>
       <c r="D61" t="n">
-        <v>109.671005216844</v>
-      </c>
-      <c r="E61"/>
+        <v>39.2707503640492</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4056783.20684308</v>
+      </c>
       <c r="F61"/>
       <c r="G61" t="s">
         <v>10</v>
@@ -2089,10 +2206,10 @@
         <v>74</v>
       </c>
       <c r="I61" t="n">
-        <v>21010267.4510177</v>
+        <v>2116.78675891513</v>
       </c>
       <c r="J61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
